--- a/Plan/GameData/UnitDatabase_v03.xlsx
+++ b/Plan/GameData/UnitDatabase_v03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A5A6F4-F593-4E84-AF0A-F64585A03447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93981327-7250-4790-9A37-50644FFC5B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="2800" windowWidth="23190" windowHeight="15370" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>Move Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,39 +121,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>K SA Value Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E SA Value Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Actions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Second Action Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K SA Value Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E SA Value Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of Actions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Special</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +178,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +188,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -271,16 +289,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -597,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECDDCD4-1D27-4FE4-92BB-9026CE350CFB}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -618,44 +645,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -663,19 +690,19 @@
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="2"/>
@@ -684,41 +711,41 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="2"/>
@@ -727,14 +754,14 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -746,18 +773,18 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -765,21 +792,21 @@
       <c r="I7" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
@@ -787,34 +814,34 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -827,22 +854,84 @@
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Plan/GameData/UnitDatabase_v03.xlsx
+++ b/Plan/GameData/UnitDatabase_v03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93981327-7250-4790-9A37-50644FFC5B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BB44A1-2D8D-4248-A2E4-354972D681B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
+    <workbookView xWindow="-28370" yWindow="1130" windowWidth="23190" windowHeight="15370" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
   <si>
     <t>Move Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,74 @@
   </si>
   <si>
     <t>Second Action Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거북이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turtle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example 1 : Turtle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example 2 : Rabbit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바빗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barbit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rabbit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase Attack Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격에 해당하는 행동의 쿨타임은 1/(초당공격속도)로 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬이 없으면 Second Action Index에 -1, Value Name에 아무거나 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격을 안하는 것도 행동으로 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 없는 값은 임의로 삽입(예: 공격 없음 행동의 Value, 장판 스킬의 Cooldown 등)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -270,13 +338,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -289,6 +403,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -301,14 +424,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECDDCD4-1D27-4FE4-92BB-9026CE350CFB}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -645,44 +780,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -690,19 +825,19 @@
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="2"/>
@@ -733,19 +868,19 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="2"/>
@@ -754,14 +889,14 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -773,7 +908,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="7"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -792,17 +927,17 @@
       <c r="I7" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
@@ -814,22 +949,22 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -837,10 +972,10 @@
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="2"/>
@@ -854,16 +989,16 @@
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="2"/>
@@ -884,6 +1019,9 @@
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F15" s="15" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
@@ -896,8 +1034,11 @@
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F16" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="2">
         <v>2</v>
@@ -908,8 +1049,11 @@
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F17" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>3</v>
@@ -920,8 +1064,11 @@
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F18" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>27</v>
@@ -933,11 +1080,224 @@
         <v>27</v>
       </c>
     </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="11">
+        <v>1</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="11">
+        <v>80</v>
+      </c>
+      <c r="H22" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="4">
+        <v>500</v>
+      </c>
+      <c r="B23" s="4">
+        <v>100</v>
+      </c>
+      <c r="C23" s="4">
+        <v>50</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="4">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="4">
+        <v>0</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="11">
+        <v>1</v>
+      </c>
+      <c r="B28" s="11">
+        <v>3</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="11">
+        <v>70</v>
+      </c>
+      <c r="H28" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="4">
+        <v>150</v>
+      </c>
+      <c r="B29" s="4">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="4">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="4">
+        <v>50</v>
+      </c>
+      <c r="B31" s="4">
+        <v>10</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A27:H27"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -946,12 +1306,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1C5E9E-FD4C-4CA6-B5C3-6FB5BFB8ED60}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="8" width="8.6640625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4">
+        <v>80</v>
+      </c>
+      <c r="H1" s="4">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="4">
+        <v>500</v>
+      </c>
+      <c r="B2" s="4">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -959,12 +1417,110 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A38EC5C-4514-4B72-A7E2-347F92EED1EC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="8" width="8.6640625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4">
+        <v>80</v>
+      </c>
+      <c r="H1" s="4">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="4">
+        <v>500</v>
+      </c>
+      <c r="B2" s="4">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -972,12 +1528,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A6246A-9F7B-4896-8792-1C606A73A571}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="8" width="8.6640625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Plan/GameData/UnitDatabase_v03.xlsx
+++ b/Plan/GameData/UnitDatabase_v03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\Plan\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BB44A1-2D8D-4248-A2E4-354972D681B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42895A12-0956-437D-B688-2BD73174D18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28370" yWindow="1130" windowWidth="23190" windowHeight="15370" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
+    <workbookView xWindow="90" yWindow="210" windowWidth="25725" windowHeight="13800" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="86">
   <si>
     <t>Move Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,13 +223,169 @@
   <si>
     <t>필요 없는 값은 임의로 삽입(예: 공격 없음 행동의 Value, 장판 스킬의 Cooldown 등)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platypus</t>
+  </si>
+  <si>
+    <t>덕배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duckbe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리너구리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squirrel</t>
+  </si>
+  <si>
+    <t>람쥐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RamG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다람쥐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Platypus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Squirrel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hores</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Llama</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특탱근원지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldHores</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cama</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase defense </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 유닛 구분선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수 유닛 구분선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pigeon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 유닛 무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friendly units invincible</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비둘기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독수리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 유닛 스턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stun enemy units</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,8 +401,20 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +442,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -412,6 +586,27 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -424,26 +619,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,40 +951,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECDDCD4-1D27-4FE4-92BB-9026CE350CFB}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.08203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.9140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="1"/>
+    <col min="9" max="9" width="21.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -821,7 +1013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -844,7 +1036,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -867,8 +1059,8 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -888,8 +1080,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -907,8 +1099,8 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -926,20 +1118,20 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -968,7 +1160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -985,7 +1177,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1006,7 +1198,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1019,11 +1211,11 @@
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>1</v>
@@ -1034,11 +1226,11 @@
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="2">
         <v>2</v>
@@ -1049,11 +1241,11 @@
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>3</v>
@@ -1064,11 +1256,11 @@
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>27</v>
@@ -1080,46 +1272,46 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="11">
-        <v>1</v>
-      </c>
-      <c r="B22" s="11">
-        <v>1</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="7">
+        <v>1</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="7">
         <v>80</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9">
       <c r="A23" s="4">
         <v>500</v>
       </c>
@@ -1139,7 +1331,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -1159,7 +1351,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9">
       <c r="A25" s="4">
         <v>0</v>
       </c>
@@ -1177,45 +1369,50 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="12" t="s">
+    <row r="26" spans="1:9">
+      <c r="I26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="11">
-        <v>1</v>
-      </c>
-      <c r="B28" s="11">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="7">
+        <v>1</v>
+      </c>
+      <c r="B28" s="7">
         <v>3</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="7">
         <v>70</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9">
       <c r="A29" s="4">
         <v>150</v>
       </c>
@@ -1235,7 +1432,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -1255,7 +1452,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9">
       <c r="A31" s="4">
         <v>50</v>
       </c>
@@ -1273,7 +1470,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9">
       <c r="A32" s="2">
         <v>0.3</v>
       </c>
@@ -1291,8 +1488,988 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="7">
+        <v>1</v>
+      </c>
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="7">
+        <v>80</v>
+      </c>
+      <c r="H39" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="4">
+        <v>500</v>
+      </c>
+      <c r="B40" s="4">
+        <v>100</v>
+      </c>
+      <c r="C40" s="4">
+        <v>50</v>
+      </c>
+      <c r="D40" s="4">
+        <v>3</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="4">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="4">
+        <v>0</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="7">
+        <v>2</v>
+      </c>
+      <c r="B45" s="7">
+        <v>1</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45" s="7">
+        <v>70</v>
+      </c>
+      <c r="H45" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="4">
+        <v>400</v>
+      </c>
+      <c r="B46" s="4">
+        <v>80</v>
+      </c>
+      <c r="C46" s="4">
+        <v>40</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="4">
+        <v>1</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="4">
+        <v>110</v>
+      </c>
+      <c r="B48" s="4">
+        <v>10</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="7">
+        <v>1</v>
+      </c>
+      <c r="B51" s="7">
+        <v>1</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51" s="7">
+        <v>30</v>
+      </c>
+      <c r="H51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="4">
+        <v>200</v>
+      </c>
+      <c r="B52" s="4">
+        <v>50</v>
+      </c>
+      <c r="C52" s="4">
+        <v>20</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="4">
+        <v>1</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+      <c r="C53" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="4">
+        <v>60</v>
+      </c>
+      <c r="B54" s="4">
+        <v>10</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="7">
+        <v>1</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" s="7">
+        <v>40</v>
+      </c>
+      <c r="H57" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="4">
+        <v>200</v>
+      </c>
+      <c r="B58" s="4">
+        <v>10</v>
+      </c>
+      <c r="C58" s="4">
+        <v>30</v>
+      </c>
+      <c r="D58" s="4">
+        <v>10</v>
+      </c>
+      <c r="E58" s="4">
+        <v>3</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="4">
+        <v>1</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
+      <c r="C59" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="4">
+        <v>90</v>
+      </c>
+      <c r="B60" s="4">
+        <v>10</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="7">
+        <v>1</v>
+      </c>
+      <c r="B63" s="7">
+        <v>1</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G63" s="7">
+        <v>45</v>
+      </c>
+      <c r="H63" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="4">
+        <v>150</v>
+      </c>
+      <c r="B64" s="4">
+        <v>10</v>
+      </c>
+      <c r="C64" s="4">
+        <v>10</v>
+      </c>
+      <c r="D64" s="4">
+        <v>10</v>
+      </c>
+      <c r="E64" s="4">
+        <v>3</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="4">
+        <v>1</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="4">
+        <v>70</v>
+      </c>
+      <c r="B66" s="4">
+        <v>10</v>
+      </c>
+      <c r="C66" s="4">
+        <v>3</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7">
+        <v>1</v>
+      </c>
+      <c r="B69" s="7">
+        <v>1</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G69" s="7">
+        <v>50</v>
+      </c>
+      <c r="H69" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="4">
+        <v>150</v>
+      </c>
+      <c r="B70" s="4">
+        <v>10</v>
+      </c>
+      <c r="C70" s="4">
+        <v>10</v>
+      </c>
+      <c r="D70" s="4">
+        <v>10</v>
+      </c>
+      <c r="E70" s="4">
+        <v>3</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="4">
+        <v>1</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0</v>
+      </c>
+      <c r="C71" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="4">
+        <v>85</v>
+      </c>
+      <c r="B72" s="4">
+        <v>10</v>
+      </c>
+      <c r="C72" s="4">
+        <v>4</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7">
+        <v>1</v>
+      </c>
+      <c r="B75" s="7">
+        <v>1</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G75" s="7">
+        <v>60</v>
+      </c>
+      <c r="H75" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="4">
+        <v>300</v>
+      </c>
+      <c r="B76" s="4">
+        <v>100</v>
+      </c>
+      <c r="C76" s="4">
+        <v>20</v>
+      </c>
+      <c r="D76" s="4">
+        <v>2</v>
+      </c>
+      <c r="E76" s="4">
+        <v>2</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="4">
+        <v>1</v>
+      </c>
+      <c r="B77" s="4">
+        <v>0</v>
+      </c>
+      <c r="C77" s="4">
+        <v>1</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="4">
+        <v>0</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="4">
+        <v>2</v>
+      </c>
+      <c r="B79" s="4">
+        <v>1</v>
+      </c>
+      <c r="C79" s="4">
+        <v>2</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7">
+        <v>1</v>
+      </c>
+      <c r="B82" s="7">
+        <v>1</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" s="7">
+        <v>70</v>
+      </c>
+      <c r="H82" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="4">
+        <v>150</v>
+      </c>
+      <c r="B83" s="4">
+        <v>40</v>
+      </c>
+      <c r="C83" s="4">
+        <v>5</v>
+      </c>
+      <c r="D83" s="4">
+        <v>2</v>
+      </c>
+      <c r="E83" s="4">
+        <v>2</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="4">
+        <v>1</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0</v>
+      </c>
+      <c r="C84" s="4">
+        <v>1</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="20">
+        <v>50</v>
+      </c>
+      <c r="B85" s="20">
+        <v>10</v>
+      </c>
+      <c r="C85" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="D85" s="20">
+        <v>1</v>
+      </c>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+    </row>
+    <row r="86" spans="1:8" s="22" customFormat="1">
+      <c r="A86" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C86" s="2">
+        <v>2</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7">
+        <v>1</v>
+      </c>
+      <c r="B93" s="7">
+        <v>1</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G93" s="7">
+        <v>120</v>
+      </c>
+      <c r="H93" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="2">
+        <v>2</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="7">
+        <v>1</v>
+      </c>
+      <c r="B98" s="7">
+        <v>1</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G98" s="7">
+        <v>150</v>
+      </c>
+      <c r="H98" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="2">
+        <v>2</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="17">
+    <mergeCell ref="A89:H89"/>
+    <mergeCell ref="A92:H92"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="A81:H81"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A56:H56"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A9:I9"/>
@@ -1301,6 +2478,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1312,12 +2490,12 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="8" width="8.6640625" style="17"/>
+    <col min="1" max="8" width="8.625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9">
       <c r="A1" s="4">
         <v>1</v>
       </c>
@@ -1346,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9">
       <c r="A2" s="4">
         <v>500</v>
       </c>
@@ -1366,7 +2544,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1386,7 +2564,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9">
       <c r="A4" s="4">
         <v>0</v>
       </c>
@@ -1404,7 +2582,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9">
       <c r="I5">
         <v>2</v>
       </c>
@@ -1423,12 +2601,12 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="8" width="8.6640625" style="17"/>
+    <col min="1" max="8" width="8.625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9">
       <c r="A1" s="4">
         <v>1</v>
       </c>
@@ -1457,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9">
       <c r="A2" s="4">
         <v>500</v>
       </c>
@@ -1477,7 +2655,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1497,7 +2675,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9">
       <c r="A4" s="4">
         <v>0</v>
       </c>
@@ -1515,7 +2693,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9">
       <c r="I5">
         <v>2</v>
       </c>
@@ -1534,12 +2712,12 @@
       <selection activeCell="I13" sqref="I13:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="8" width="8.6640625" style="17"/>
+    <col min="1" max="8" width="8.625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1552,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>

--- a/Plan/GameData/UnitDatabase_v03.xlsx
+++ b/Plan/GameData/UnitDatabase_v03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42895A12-0956-437D-B688-2BD73174D18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953AABE2-FEE1-464B-89E7-537A1F621062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="90" yWindow="210" windowWidth="25725" windowHeight="13800" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
   </bookViews>
@@ -564,7 +564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,6 +598,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -618,24 +633,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECDDCD4-1D27-4FE4-92BB-9026CE350CFB}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -972,17 +969,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -1060,7 +1057,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1081,7 +1078,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="16"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1100,7 +1097,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="17"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1119,17 +1116,17 @@
       <c r="I7" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
@@ -1273,16 +1270,16 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9">
@@ -1375,16 +1372,16 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
@@ -1489,28 +1486,28 @@
       <c r="H32" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7">
@@ -1597,23 +1594,23 @@
       <c r="H42" s="4"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7">
         <v>2</v>
       </c>
       <c r="B45" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>47</v>
@@ -1693,23 +1690,23 @@
       <c r="H48" s="4"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B51" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>51</v>
@@ -1720,7 +1717,7 @@
       <c r="E51" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="11" t="s">
         <v>50</v>
       </c>
       <c r="G51" s="7">
@@ -1789,23 +1786,23 @@
       <c r="H54" s="4"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B57" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>60</v>
@@ -1885,23 +1882,23 @@
       <c r="H60" s="4"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B63" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>63</v>
@@ -1981,23 +1978,23 @@
       <c r="H66" s="4"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B69" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>66</v>
@@ -2077,23 +2074,23 @@
       <c r="H72" s="4"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B75" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>69</v>
@@ -2147,7 +2144,7 @@
       <c r="D77" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="12" t="s">
         <v>74</v>
       </c>
       <c r="F77" s="4"/>
@@ -2191,23 +2188,23 @@
       <c r="H79" s="4"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B82" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>36</v>
@@ -2269,24 +2266,24 @@
       <c r="H84" s="4"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="20">
+      <c r="A85" s="13">
         <v>50</v>
       </c>
-      <c r="B85" s="20">
+      <c r="B85" s="13">
         <v>10</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C85" s="13">
         <v>0.4</v>
       </c>
-      <c r="D85" s="20">
-        <v>1</v>
-      </c>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-    </row>
-    <row r="86" spans="1:8" s="22" customFormat="1">
+      <c r="D85" s="13">
+        <v>1</v>
+      </c>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="2">
         <v>0.3</v>
       </c>
@@ -2305,35 +2302,35 @@
       <c r="H86" s="2"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="7">
         <v>1</v>
       </c>
       <c r="B93" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>81</v>
@@ -2358,7 +2355,7 @@
       <c r="A94" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B94" s="23" t="s">
+      <c r="B94" s="14" t="s">
         <v>79</v>
       </c>
       <c r="C94" s="4"/>
@@ -2387,23 +2384,23 @@
       <c r="H95" s="2"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B98" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>81</v>
@@ -2428,7 +2425,7 @@
       <c r="A99" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="14" t="s">
         <v>85</v>
       </c>
       <c r="C99" s="4"/>
@@ -2458,6 +2455,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A56:H56"/>
     <mergeCell ref="A89:H89"/>
     <mergeCell ref="A92:H92"/>
     <mergeCell ref="A97:H97"/>
@@ -2465,16 +2472,6 @@
     <mergeCell ref="A68:H68"/>
     <mergeCell ref="A74:H74"/>
     <mergeCell ref="A81:H81"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan/GameData/UnitDatabase_v03.xlsx
+++ b/Plan/GameData/UnitDatabase_v03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953AABE2-FEE1-464B-89E7-537A1F621062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD23450C-E6EE-4A08-AE24-9151FF19F63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="210" windowWidth="25725" windowHeight="13800" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
+    <workbookView xWindow="-37340" yWindow="2920" windowWidth="23190" windowHeight="18160" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="88">
   <si>
     <t>Move Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,14 @@
   </si>
   <si>
     <t>Stun enemy units</t>
+  </si>
+  <si>
+    <t>특수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -452,7 +460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -558,13 +566,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -610,9 +649,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -632,6 +668,18 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -950,36 +998,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECDDCD4-1D27-4FE4-92BB-9026CE350CFB}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.625" style="1"/>
+    <col min="9" max="9" width="21.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -1057,7 +1105,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1078,7 +1126,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="21"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1097,7 +1145,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="22"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1116,17 +1164,17 @@
       <c r="I7" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
@@ -1195,25 +1243,37 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A15" s="24"/>
       <c r="B15" s="2">
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="2"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -1228,7 +1288,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="2"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -1243,7 +1303,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="2"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -1258,9 +1318,9 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>27</v>
+      <c r="A19" s="25"/>
+      <c r="B19" s="2">
+        <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>27</v>
@@ -1270,16 +1330,16 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9">
@@ -1372,16 +1432,16 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
@@ -1486,28 +1546,28 @@
       <c r="H32" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7">
@@ -1583,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="C42" s="4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -1594,16 +1654,16 @@
       <c r="H42" s="4"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7">
@@ -1690,16 +1750,16 @@
       <c r="H48" s="4"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7">
@@ -1786,16 +1846,16 @@
       <c r="H54" s="4"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="7">
@@ -1882,16 +1942,16 @@
       <c r="H60" s="4"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="7">
@@ -1978,16 +2038,16 @@
       <c r="H66" s="4"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7">
@@ -2074,16 +2134,16 @@
       <c r="H72" s="4"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7">
@@ -2133,7 +2193,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B77" s="4">
         <v>0</v>
@@ -2159,10 +2219,10 @@
         <v>0</v>
       </c>
       <c r="C78" s="4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D78" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -2188,16 +2248,16 @@
       <c r="H79" s="4"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
@@ -2247,7 +2307,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B84" s="4">
         <v>0</v>
@@ -2302,28 +2362,28 @@
       <c r="H86" s="2"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="7">
@@ -2384,16 +2444,16 @@
       <c r="H95" s="2"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
@@ -2454,17 +2514,7 @@
       <c r="H100" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A56:H56"/>
+  <mergeCells count="18">
     <mergeCell ref="A89:H89"/>
     <mergeCell ref="A92:H92"/>
     <mergeCell ref="A97:H97"/>
@@ -2472,6 +2522,17 @@
     <mergeCell ref="A68:H68"/>
     <mergeCell ref="A74:H74"/>
     <mergeCell ref="A81:H81"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2481,40 +2542,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1C5E9E-FD4C-4CA6-B5C3-6FB5BFB8ED60}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="8" width="8.625" style="10"/>
+    <col min="1" max="8" width="8.58203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="7">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="7">
         <v>80</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="7">
         <v>3</v>
       </c>
       <c r="I1">
@@ -2569,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -2580,52 +2641,693 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:9">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="7">
+        <v>70</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
       <c r="I5">
         <v>2</v>
       </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4">
+        <v>400</v>
+      </c>
+      <c r="B6" s="4">
+        <v>80</v>
+      </c>
+      <c r="C6" s="4">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4">
+        <v>110</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4">
+        <v>200</v>
+      </c>
+      <c r="B10" s="4">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4">
+        <v>60</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="7">
+        <v>40</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4">
+        <v>200</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4">
+        <v>90</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="7">
+        <v>5</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="7">
+        <v>45</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="4">
+        <v>150</v>
+      </c>
+      <c r="B18" s="4">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="4">
+        <v>70</v>
+      </c>
+      <c r="B20" s="4">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="7">
+        <v>6</v>
+      </c>
+      <c r="B21" s="7">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7">
+        <v>50</v>
+      </c>
+      <c r="H21" s="7">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="4">
+        <v>150</v>
+      </c>
+      <c r="B22" s="4">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="4">
+        <v>85</v>
+      </c>
+      <c r="B24" s="4">
+        <v>10</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="7">
+        <v>7</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="7">
+        <v>60</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4">
+        <v>300</v>
+      </c>
+      <c r="B26" s="4">
+        <v>100</v>
+      </c>
+      <c r="C26" s="4">
+        <v>20</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="34">
+      <c r="A27" s="4">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="4">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="4">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="7">
+        <v>8</v>
+      </c>
+      <c r="B30" s="7">
+        <v>4</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="7">
+        <v>70</v>
+      </c>
+      <c r="H30" s="7">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="4">
+        <v>150</v>
+      </c>
+      <c r="B31" s="4">
+        <v>40</v>
+      </c>
+      <c r="C31" s="4">
+        <v>5</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="4">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="13">
+        <v>50</v>
+      </c>
+      <c r="B33" s="13">
+        <v>10</v>
+      </c>
+      <c r="C33" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A38EC5C-4514-4B72-A7E2-347F92EED1EC}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="8" width="8.625" style="10"/>
+    <col min="1" max="8" width="8.58203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="7">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="7">
         <v>80</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="7">
         <v>3</v>
       </c>
       <c r="I1">
@@ -2680,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -2691,45 +3393,793 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:9">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="7">
+        <v>70</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
       <c r="I5">
         <v>2</v>
       </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4">
+        <v>400</v>
+      </c>
+      <c r="B6" s="4">
+        <v>80</v>
+      </c>
+      <c r="C6" s="4">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4">
+        <v>110</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4">
+        <v>200</v>
+      </c>
+      <c r="B10" s="4">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4">
+        <v>60</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="7">
+        <v>40</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4">
+        <v>200</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4">
+        <v>90</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="7">
+        <v>5</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="7">
+        <v>45</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="4">
+        <v>150</v>
+      </c>
+      <c r="B18" s="4">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="4">
+        <v>70</v>
+      </c>
+      <c r="B20" s="4">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="7">
+        <v>6</v>
+      </c>
+      <c r="B21" s="7">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7">
+        <v>50</v>
+      </c>
+      <c r="H21" s="7">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="4">
+        <v>150</v>
+      </c>
+      <c r="B22" s="4">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="4">
+        <v>85</v>
+      </c>
+      <c r="B24" s="4">
+        <v>10</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="7">
+        <v>7</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="7">
+        <v>60</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4">
+        <v>300</v>
+      </c>
+      <c r="B26" s="4">
+        <v>100</v>
+      </c>
+      <c r="C26" s="4">
+        <v>20</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="34">
+      <c r="A27" s="4">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="4">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="4">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="7">
+        <v>8</v>
+      </c>
+      <c r="B30" s="7">
+        <v>4</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="7">
+        <v>70</v>
+      </c>
+      <c r="H30" s="7">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="4">
+        <v>150</v>
+      </c>
+      <c r="B31" s="4">
+        <v>40</v>
+      </c>
+      <c r="C31" s="4">
+        <v>5</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="4">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="13">
+        <v>50</v>
+      </c>
+      <c r="B33" s="13">
+        <v>10</v>
+      </c>
+      <c r="C33" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="7">
+        <v>2</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7">
+        <v>70</v>
+      </c>
+      <c r="H35" s="7">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="4">
+        <v>400</v>
+      </c>
+      <c r="B36" s="4">
+        <v>80</v>
+      </c>
+      <c r="C36" s="4">
+        <v>40</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="4">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="4">
+        <v>110</v>
+      </c>
+      <c r="B38" s="4">
+        <v>10</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A6246A-9F7B-4896-8792-1C606A73A571}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:I14"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="8" width="8.625" style="10"/>
+    <col min="1" max="8" width="8.58203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="A1" s="7">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="7">
+        <v>120</v>
+      </c>
+      <c r="H1" s="7">
+        <v>30</v>
+      </c>
       <c r="I1">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2737,8 +4187,88 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="7">
+        <v>150</v>
+      </c>
+      <c r="H4" s="7">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Plan/GameData/UnitDatabase_v03.xlsx
+++ b/Plan/GameData/UnitDatabase_v03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\Plan\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD23450C-E6EE-4A08-AE24-9151FF19F63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F7793E-B28B-4F78-B6C2-8DB6FBD6E828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37340" yWindow="2920" windowWidth="23190" windowHeight="18160" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
+    <workbookView xWindow="1215" yWindow="840" windowWidth="25725" windowHeight="13800" activeTab="3" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="106">
   <si>
     <t>Move Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,13 +387,75 @@
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항상 갈라지는 등딱지 때문에 고민이 많던 투카 용병단은 어느 날 빈 대포를 찾게 됩니다. 들어가보니 딱 맞는 것이 아니겠어요? 아, 어떻게 들어갔는지는 물어보지 마세요. 공격을 무서워해서 숨는 습성이 있습니다. 대신 높은 체력과 방어력으로 팀을 적의 공격으로부터 막아줍니다</t>
+  </si>
+  <si>
+    <t>덕배 용병단은 곰처럼 몸이 커지고 싶었습니다. 운 좋게 얻은 곰 모양의 옷에 맞춰 열심히 운동한 결과 그들은 곰이 되었습니다! 아니, 정확하게 말하면 곰처럼 변했다고 해야할까요? 단단한 몸으로 한 번에 강력한 공격을 합니다</t>
+  </si>
+  <si>
+    <t>람지 쌍검단은 쌍검을 쓰는 용맹한 전사들입니다! 작지만 재빠른 이동과 공격으로 적의 혼을 빼놓지요! 한 번에 두 번의 공격을 합니다</t>
+  </si>
+  <si>
+    <t>금호 창술단은 원래 오토바이를 타고 다니던 불량한 무리였습니다. 하지만 창을 배우고 난 뒤 건실하게 살아가고 있습니다. 긴 창을 이용하여 조금 더 멀리서 강한 공격을 합니다</t>
+  </si>
+  <si>
+    <t>아라 궁수단은 활을 쏘는 연습을 매일 하는 용병단입니다. 전쟁에 나가기 전에 자신의 단원의 머리 위의 모자에 화살을 맞추는 의식을 치루는 것으로 유명합니다. 잘못 맞으면 어떡하냐구요? 그럴 일은 없습니다~ 활을 이용하여 원거리에서 적을 공격합니다</t>
+  </si>
+  <si>
+    <t>카마 마법사단은 다양한 마법을 연구하는 용병단입니다. 이젠 그들의 장기를 활용하여 엄청난 마법을 보여주려 합니다! 전기 구체를 발사하여 원거리에서 공격합니다</t>
+  </si>
+  <si>
+    <t>홀리 성직자단은 왕국의 안녕과 평화를 기원하는 공동체입니다. 전투에 참여하고 싶지 않았지만 세계의 균형을 위해 전투에 참여하였습니다 공격을 하지 않고 일정 범위 내의 아군에게 체력, 방어력 증가 버프를 부여합니다</t>
+  </si>
+  <si>
+    <t>바빗 음악단은 여유롭게 음악을 즐기는 토끼들이 뭉친 집단입니다. 사람들이 많은 곳에서 연주를 하는 것을 즐기던 토끼들이 이번 전투에서 자신들이 도움을 줄 수 있다는 것을 깨닫고 기꺼이 참여했습니다! 일정 범위 내의 아군에게 공속, 이속 증가 버프를 제공합니다. 적이 근접하면 약한 공격을 합니다</t>
+  </si>
+  <si>
+    <t>고릴라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 연속으로 문제를 틀릴시 나타난다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reaper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피스는 왕국의 평화를 책임지는 믿음직한 비둘기입니다. 순백의 날개를 펼치면 아군들은 기쁨에 가득찹니다! 아군 유닛에게 일정 시간 무적 효과를 부여합니다</t>
+  </si>
+  <si>
+    <t>테이저는 왕국의 위협을 감시하는 하늘의 지킴이입니다. 위험한 현장에는 바람같이 나타나 적을 위협하여 아군을 지킵니다! 적 유닛에게 일정 시간 스턴 효과를 부여합니다</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +481,12 @@
       <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -603,7 +671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -649,6 +717,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -670,9 +741,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -681,6 +749,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -998,36 +1069,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECDDCD4-1D27-4FE4-92BB-9026CE350CFB}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.58203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.08203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.58203125" style="1"/>
+    <col min="9" max="9" width="21.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -1105,7 +1176,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1126,7 +1197,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1145,7 +1216,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1164,17 +1235,17 @@
       <c r="I7" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
@@ -1330,16 +1401,16 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9">
@@ -1432,16 +1503,16 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
@@ -1546,28 +1617,28 @@
       <c r="H32" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7">
@@ -1654,16 +1725,16 @@
       <c r="H42" s="4"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7">
@@ -1750,16 +1821,16 @@
       <c r="H48" s="4"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7">
@@ -1846,16 +1917,16 @@
       <c r="H54" s="4"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="7">
@@ -1942,16 +2013,16 @@
       <c r="H60" s="4"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="7">
@@ -2038,16 +2109,16 @@
       <c r="H66" s="4"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7">
@@ -2134,16 +2205,16 @@
       <c r="H72" s="4"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7">
@@ -2248,16 +2319,16 @@
       <c r="H79" s="4"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
@@ -2362,28 +2433,28 @@
       <c r="H86" s="2"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="7">
@@ -2444,16 +2515,16 @@
       <c r="H95" s="2"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
@@ -2515,6 +2586,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A56:H56"/>
     <mergeCell ref="A89:H89"/>
     <mergeCell ref="A92:H92"/>
     <mergeCell ref="A97:H97"/>
@@ -2522,17 +2604,6 @@
     <mergeCell ref="A68:H68"/>
     <mergeCell ref="A74:H74"/>
     <mergeCell ref="A81:H81"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2545,12 +2616,12 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="8" width="8.58203125" style="10"/>
+    <col min="1" max="8" width="8.625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2569,8 +2640,8 @@
       <c r="E1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>32</v>
+      <c r="F1" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="G1" s="7">
         <v>80</v>
@@ -2656,8 +2727,8 @@
       <c r="E5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>46</v>
+      <c r="F5" s="26" t="s">
+        <v>89</v>
       </c>
       <c r="G5" s="7">
         <v>70</v>
@@ -2743,8 +2814,8 @@
       <c r="E9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>50</v>
+      <c r="F9" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="G9" s="7">
         <v>30</v>
@@ -2830,8 +2901,8 @@
       <c r="E13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>56</v>
+      <c r="F13" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="G13" s="7">
         <v>40</v>
@@ -2917,8 +2988,8 @@
       <c r="E17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>57</v>
+      <c r="F17" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="G17" s="7">
         <v>45</v>
@@ -3004,8 +3075,8 @@
       <c r="E21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>58</v>
+      <c r="F21" s="26" t="s">
+        <v>93</v>
       </c>
       <c r="G21" s="7">
         <v>50</v>
@@ -3091,8 +3162,8 @@
       <c r="E25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>72</v>
+      <c r="F25" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="G25" s="7">
         <v>60</v>
@@ -3124,7 +3195,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="34">
+    <row r="27" spans="1:9" ht="33">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -3196,8 +3267,8 @@
       <c r="E30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>39</v>
+      <c r="F30" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="G30" s="7">
         <v>70</v>
@@ -3296,13 +3367,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A38EC5C-4514-4B72-A7E2-347F92EED1EC}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="8" width="8.58203125" style="10"/>
+    <col min="1" max="5" width="8.625" style="10"/>
+    <col min="6" max="6" width="9" style="10"/>
+    <col min="7" max="8" width="8.625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3321,8 +3394,8 @@
       <c r="E1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>32</v>
+      <c r="F1" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="G1" s="7">
         <v>80</v>
@@ -3408,8 +3481,8 @@
       <c r="E5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>46</v>
+      <c r="F5" s="26" t="s">
+        <v>89</v>
       </c>
       <c r="G5" s="7">
         <v>70</v>
@@ -3495,8 +3568,8 @@
       <c r="E9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>50</v>
+      <c r="F9" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="G9" s="7">
         <v>30</v>
@@ -3582,8 +3655,8 @@
       <c r="E13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>56</v>
+      <c r="F13" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="G13" s="7">
         <v>40</v>
@@ -3669,8 +3742,8 @@
       <c r="E17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>57</v>
+      <c r="F17" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="G17" s="7">
         <v>45</v>
@@ -3756,8 +3829,8 @@
       <c r="E21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>58</v>
+      <c r="F21" s="26" t="s">
+        <v>93</v>
       </c>
       <c r="G21" s="7">
         <v>50</v>
@@ -3843,8 +3916,8 @@
       <c r="E25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>72</v>
+      <c r="F25" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="G25" s="7">
         <v>60</v>
@@ -3876,7 +3949,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="34">
+    <row r="27" spans="1:9" ht="33">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -3948,8 +4021,8 @@
       <c r="E30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>39</v>
+      <c r="F30" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="G30" s="7">
         <v>70</v>
@@ -4039,28 +4112,28 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B35" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>46</v>
+        <v>96</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="G35" s="7">
-        <v>70</v>
+        <v>4444</v>
       </c>
       <c r="H35" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I35">
         <v>9</v>
@@ -4068,21 +4141,20 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4">
-        <v>400</v>
+        <v>4444</v>
       </c>
       <c r="B36" s="4">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C36" s="4">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D36" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E36" s="4">
         <v>2</v>
       </c>
-      <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
@@ -4102,25 +4174,23 @@
       <c r="E37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="B38" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C38" s="4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D38" s="4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
@@ -4135,13 +4205,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A6246A-9F7B-4896-8792-1C606A73A571}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="8" width="8.58203125" style="10"/>
+    <col min="1" max="8" width="8.625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4152,16 +4222,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>77</v>
+      <c r="F1" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="G1" s="7">
         <v>120</v>
@@ -4194,11 +4264,11 @@
       <c r="B3" s="2">
         <v>0.5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>81</v>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -4213,16 +4283,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>80</v>
+      <c r="F4" s="26" t="s">
+        <v>105</v>
       </c>
       <c r="G4" s="7">
         <v>150</v>
@@ -4255,11 +4325,11 @@
       <c r="B6" s="2">
         <v>0.5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>81</v>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>

--- a/Plan/GameData/UnitDatabase_v03.xlsx
+++ b/Plan/GameData/UnitDatabase_v03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F7793E-B28B-4F78-B6C2-8DB6FBD6E828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E521F0A5-01C1-4859-BBB1-AD8D25CF629F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="840" windowWidth="25725" windowHeight="13800" activeTab="3" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
+    <workbookView xWindow="7760" yWindow="1960" windowWidth="23190" windowHeight="18160" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -717,8 +717,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -750,8 +750,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,22 +1069,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECDDCD4-1D27-4FE4-92BB-9026CE350CFB}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.625" style="1"/>
+    <col min="9" max="9" width="21.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1609,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1617,16 +1617,16 @@
       <c r="H32" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="16" t="s">
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="4">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="C48" s="4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D48" s="4">
         <v>2.5</v>
@@ -1906,7 +1906,7 @@
         <v>10</v>
       </c>
       <c r="C54" s="4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="C78" s="4">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -2311,7 +2311,7 @@
         <v>2</v>
       </c>
       <c r="D79" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -2404,7 +2404,7 @@
         <v>10</v>
       </c>
       <c r="C85" s="13">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D85" s="13">
         <v>1</v>
@@ -2425,7 +2425,7 @@
         <v>2</v>
       </c>
       <c r="D86" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -2433,16 +2433,16 @@
       <c r="H86" s="2"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="16" t="s">
@@ -2586,17 +2586,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A56:H56"/>
     <mergeCell ref="A89:H89"/>
     <mergeCell ref="A92:H92"/>
     <mergeCell ref="A97:H97"/>
@@ -2604,6 +2593,17 @@
     <mergeCell ref="A68:H68"/>
     <mergeCell ref="A74:H74"/>
     <mergeCell ref="A81:H81"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2616,12 +2616,12 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="8" width="8.625" style="10"/>
+    <col min="1" max="8" width="8.58203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2640,7 +2640,7 @@
       <c r="E1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="15" t="s">
         <v>88</v>
       </c>
       <c r="G1" s="7">
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -2727,7 +2727,7 @@
       <c r="E5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="15" t="s">
         <v>89</v>
       </c>
       <c r="G5" s="7">
@@ -2788,7 +2788,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4">
         <v>2.5</v>
@@ -2814,7 +2814,7 @@
       <c r="E9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="15" t="s">
         <v>90</v>
       </c>
       <c r="G9" s="7">
@@ -2875,7 +2875,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -2901,7 +2901,7 @@
       <c r="E13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="15" t="s">
         <v>91</v>
       </c>
       <c r="G13" s="7">
@@ -2988,7 +2988,7 @@
       <c r="E17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="15" t="s">
         <v>92</v>
       </c>
       <c r="G17" s="7">
@@ -3075,7 +3075,7 @@
       <c r="E21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="15" t="s">
         <v>93</v>
       </c>
       <c r="G21" s="7">
@@ -3162,7 +3162,7 @@
       <c r="E25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="15" t="s">
         <v>94</v>
       </c>
       <c r="G25" s="7">
@@ -3195,7 +3195,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="33">
+    <row r="27" spans="1:9" ht="34">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="4">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -3244,7 +3244,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -3267,7 +3267,7 @@
       <c r="E30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="15" t="s">
         <v>95</v>
       </c>
       <c r="G30" s="7">
@@ -3328,7 +3328,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="13">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D33" s="13">
         <v>1</v>
@@ -3349,7 +3349,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -3368,14 +3368,14 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="5" width="8.625" style="10"/>
+    <col min="1" max="5" width="8.58203125" style="10"/>
     <col min="6" max="6" width="9" style="10"/>
-    <col min="7" max="8" width="8.625" style="10"/>
+    <col min="7" max="8" width="8.58203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3394,7 +3394,7 @@
       <c r="E1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="15" t="s">
         <v>88</v>
       </c>
       <c r="G1" s="7">
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -3481,7 +3481,7 @@
       <c r="E5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="15" t="s">
         <v>89</v>
       </c>
       <c r="G5" s="7">
@@ -3542,7 +3542,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4">
         <v>2.5</v>
@@ -3568,7 +3568,7 @@
       <c r="E9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="15" t="s">
         <v>90</v>
       </c>
       <c r="G9" s="7">
@@ -3629,7 +3629,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -3655,7 +3655,7 @@
       <c r="E13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="15" t="s">
         <v>91</v>
       </c>
       <c r="G13" s="7">
@@ -3742,7 +3742,7 @@
       <c r="E17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="15" t="s">
         <v>92</v>
       </c>
       <c r="G17" s="7">
@@ -3829,7 +3829,7 @@
       <c r="E21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="15" t="s">
         <v>93</v>
       </c>
       <c r="G21" s="7">
@@ -3916,7 +3916,7 @@
       <c r="E25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="15" t="s">
         <v>94</v>
       </c>
       <c r="G25" s="7">
@@ -3949,7 +3949,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="33">
+    <row r="27" spans="1:9" ht="34">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="4">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -3998,7 +3998,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -4021,7 +4021,7 @@
       <c r="E30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="15" t="s">
         <v>95</v>
       </c>
       <c r="G30" s="7">
@@ -4082,7 +4082,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="13">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D33" s="13">
         <v>1</v>
@@ -4103,7 +4103,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -4205,13 +4205,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A6246A-9F7B-4896-8792-1C606A73A571}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="8" width="8.625" style="10"/>
+    <col min="1" max="8" width="8.58203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4230,7 +4230,7 @@
       <c r="E1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G1" s="7">
@@ -4291,7 +4291,7 @@
       <c r="E4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="15" t="s">
         <v>105</v>
       </c>
       <c r="G4" s="7">

--- a/Plan/GameData/UnitDatabase_v03.xlsx
+++ b/Plan/GameData/UnitDatabase_v03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\Plan\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E521F0A5-01C1-4859-BBB1-AD8D25CF629F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80927C63-BEA3-402F-96C5-1EA51E613D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7760" yWindow="1960" windowWidth="23190" windowHeight="18160" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
+    <workbookView xWindow="345" yWindow="870" windowWidth="25725" windowHeight="13800" activeTab="3" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="116">
   <si>
     <t>Move Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -404,23 +404,9 @@
     <t>아라 궁수단은 활을 쏘는 연습을 매일 하는 용병단입니다. 전쟁에 나가기 전에 자신의 단원의 머리 위의 모자에 화살을 맞추는 의식을 치루는 것으로 유명합니다. 잘못 맞으면 어떡하냐구요? 그럴 일은 없습니다~ 활을 이용하여 원거리에서 적을 공격합니다</t>
   </si>
   <si>
-    <t>카마 마법사단은 다양한 마법을 연구하는 용병단입니다. 이젠 그들의 장기를 활용하여 엄청난 마법을 보여주려 합니다! 전기 구체를 발사하여 원거리에서 공격합니다</t>
-  </si>
-  <si>
-    <t>홀리 성직자단은 왕국의 안녕과 평화를 기원하는 공동체입니다. 전투에 참여하고 싶지 않았지만 세계의 균형을 위해 전투에 참여하였습니다 공격을 하지 않고 일정 범위 내의 아군에게 체력, 방어력 증가 버프를 부여합니다</t>
-  </si>
-  <si>
     <t>바빗 음악단은 여유롭게 음악을 즐기는 토끼들이 뭉친 집단입니다. 사람들이 많은 곳에서 연주를 하는 것을 즐기던 토끼들이 이번 전투에서 자신들이 도움을 줄 수 있다는 것을 깨닫고 기꺼이 참여했습니다! 일정 범위 내의 아군에게 공속, 이속 증가 버프를 제공합니다. 적이 근접하면 약한 공격을 합니다</t>
   </si>
   <si>
-    <t>고릴라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저가 연속으로 문제를 틀릴시 나타난다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -449,13 +435,931 @@
   </si>
   <si>
     <t>테이저는 왕국의 위협을 감시하는 하늘의 지킴이입니다. 위험한 현장에는 바람같이 나타나 적을 위협하여 아군을 지킵니다! 적 유닛에게 일정 시간 스턴 효과를 부여합니다</t>
+  </si>
+  <si>
+    <t>Because of the carapace that always loses water, the mercenary Tuca, who has a lot of manna, made them find an empty cannon one day. As you can see, it doesn't fit right? Oh, don't ask me how to get it. It has a habit of hiding because it is afraid of attack. Instead, block your team from enemy attacks with high health and defense.</t>
+  </si>
+  <si>
+    <t>The Deokbae Mercenary Corps wanted to grow as big as a bear. As a result of hard work in matching bear-shaped clothes they were lucky enough to get, they turned into bears! No, to be precise, should I say that he changed like a bear? A single powerful attack with a solid body</t>
+  </si>
+  <si>
+    <t>The Ramji Twin Blades are brave warriors wielding twin swords! Take out the enemy's soul with small but quick movements and attacks! Makes two attacks at once</t>
+  </si>
+  <si>
+    <t>The Kumho Spearmen were originally a rogue group that rode motorcycles. However, after learning the spear, I am living a healthy life. Use a long spear to make a strong attack from a little further away.</t>
+  </si>
+  <si>
+    <t>The Ara Archers Team is a mercenary group that practices archery every day. He is known for ceremoniously shooting arrows into the hats of his men before going to war. What if I get it wrong? There's no such thing ~ Use a bow to attack enemies from a distance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카마</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마법사단은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다양한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마법을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연구하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병단입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이젠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그들의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장기를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활용하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엄청난</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마법을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보여주려</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구체를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발사하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원거리에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격합니다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Kama Wizards are a mercenary group that studies various magics. Now I'm going to use their organs and show them great magic! Fires an orb of electricity to attack from a distance.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>홀리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성직자단은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>왕국의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안녕과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>평화를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기원하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공동체입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전투에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참여하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>싶지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않았지만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세계의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>균형을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전투에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참여하였습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아군에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>체력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방어력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버프를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부여합니다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Holy Clergy is a community that prays for the well-being and peace of the kingdom. I didn't want to participate in the battle, but I participated in the battle for the balance of the world. Grants buffs to increase health and defense to allies within a certain range without attacking.</t>
+  </si>
+  <si>
+    <t>The Babbit Music Troupe is a group of rabbits who enjoy music leisurely. The rabbits, who enjoyed playing in crowds of people, realized that they could help in this battle and gladly participated! Provides attack speed and movement speed increase buffs to allies within a certain range. When an enemy gets close, they do a weak attack.</t>
+  </si>
+  <si>
+    <t>플레이어가 연속으로 문제를 틀릴 때 등장합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Appears when a player gets a series of questions wrong.</t>
+  </si>
+  <si>
+    <t>Peace is a reliable pigeon responsible for the peace of the kingdom. When you spread your pure white wings, your allies will be filled with joy! Gives allied units invincibility for a certain period of time.</t>
+  </si>
+  <si>
+    <t>Tasers are heavenly guardians who watch out for threats to the realm. It appears like the wind in a dangerous scene and threatens enemies to protect allies! Gives enemy units a stun effect for a certain period of time.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +1392,32 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="7">
@@ -671,7 +1601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,6 +1650,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -750,8 +1683,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,36 +2020,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECDDCD4-1D27-4FE4-92BB-9026CE350CFB}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.58203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.08203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.58203125" style="1"/>
+    <col min="9" max="9" width="21.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -1176,7 +2127,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1197,7 +2148,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1216,7 +2167,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1235,17 +2186,17 @@
       <c r="I7" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
@@ -1315,7 +2266,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1329,7 +2280,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="2">
         <v>0</v>
       </c>
@@ -1344,7 +2295,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="24"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -1359,7 +2310,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="24"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -1374,7 +2325,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="24"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -1389,7 +2340,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="25"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="2">
         <v>4</v>
       </c>
@@ -1401,16 +2352,16 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9">
@@ -1503,16 +2454,16 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
@@ -1617,28 +2568,28 @@
       <c r="H32" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7">
@@ -1725,16 +2676,16 @@
       <c r="H42" s="4"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7">
@@ -1821,16 +2772,16 @@
       <c r="H48" s="4"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7">
@@ -1917,16 +2868,16 @@
       <c r="H54" s="4"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="7">
@@ -2013,16 +2964,16 @@
       <c r="H60" s="4"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="7">
@@ -2109,16 +3060,16 @@
       <c r="H66" s="4"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7">
@@ -2205,16 +3156,16 @@
       <c r="H72" s="4"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7">
@@ -2319,16 +3270,16 @@
       <c r="H79" s="4"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
@@ -2433,28 +3384,28 @@
       <c r="H86" s="2"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="7">
@@ -2515,16 +3466,16 @@
       <c r="H95" s="2"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
@@ -2586,6 +3537,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A56:H56"/>
     <mergeCell ref="A89:H89"/>
     <mergeCell ref="A92:H92"/>
     <mergeCell ref="A97:H97"/>
@@ -2593,17 +3555,6 @@
     <mergeCell ref="A68:H68"/>
     <mergeCell ref="A74:H74"/>
     <mergeCell ref="A81:H81"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2616,12 +3567,14 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="8" width="8.58203125" style="10"/>
+    <col min="1" max="5" width="8.625" style="10"/>
+    <col min="6" max="6" width="8.625" style="31"/>
+    <col min="7" max="8" width="8.625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2637,11 +3590,11 @@
       <c r="D1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>88</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="G1" s="7">
         <v>80</v>
@@ -2669,7 +3622,7 @@
       <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
@@ -2689,7 +3642,7 @@
       <c r="E3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
@@ -2707,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
@@ -2724,11 +3677,11 @@
       <c r="D5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>89</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="G5" s="7">
         <v>70</v>
@@ -2756,7 +3709,7 @@
       <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
@@ -2776,7 +3729,7 @@
       <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
@@ -2794,7 +3747,7 @@
         <v>2.5</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
@@ -2811,11 +3764,11 @@
       <c r="D9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="15" t="s">
+      <c r="E9" s="15" t="s">
         <v>90</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>104</v>
       </c>
       <c r="G9" s="7">
         <v>30</v>
@@ -2843,7 +3796,7 @@
       <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
@@ -2863,7 +3816,7 @@
       <c r="E11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
@@ -2881,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
@@ -2898,11 +3851,11 @@
       <c r="D13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>91</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>105</v>
       </c>
       <c r="G13" s="7">
         <v>40</v>
@@ -2930,7 +3883,7 @@
       <c r="E14" s="4">
         <v>3</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
@@ -2950,7 +3903,7 @@
       <c r="E15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
@@ -2968,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
@@ -2985,11 +3938,11 @@
       <c r="D17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="15" t="s">
+      <c r="E17" s="15" t="s">
         <v>92</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="G17" s="7">
         <v>45</v>
@@ -3017,7 +3970,7 @@
       <c r="E18" s="4">
         <v>3</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
@@ -3037,7 +3990,7 @@
       <c r="E19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
@@ -3055,7 +4008,7 @@
         <v>0.84</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
@@ -3072,11 +4025,11 @@
       <c r="D21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>93</v>
+      <c r="E21" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="G21" s="7">
         <v>50</v>
@@ -3104,7 +4057,7 @@
       <c r="E22" s="4">
         <v>3</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
@@ -3124,7 +4077,7 @@
       <c r="E23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
@@ -3142,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
@@ -3159,11 +4112,11 @@
       <c r="D25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>94</v>
+      <c r="E25" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="G25" s="7">
         <v>60</v>
@@ -3191,11 +4144,11 @@
       <c r="E26" s="4">
         <v>2</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="34">
+    <row r="27" spans="1:9" ht="33">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -3211,7 +4164,7 @@
       <c r="E27" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
@@ -3229,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
@@ -3247,7 +4200,7 @@
         <v>0.1</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
@@ -3264,11 +4217,11 @@
       <c r="D30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>95</v>
+      <c r="E30" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="G30" s="7">
         <v>70</v>
@@ -3296,7 +4249,7 @@
       <c r="E31" s="4">
         <v>2</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
@@ -3316,7 +4269,7 @@
       <c r="E32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
@@ -3334,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="F33" s="29"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
@@ -3352,7 +4305,7 @@
         <v>0.1</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="30"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
@@ -3368,14 +4321,15 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="5" width="8.58203125" style="10"/>
-    <col min="6" max="6" width="9" style="10"/>
-    <col min="7" max="8" width="8.58203125" style="10"/>
+    <col min="1" max="4" width="8.625" style="10"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="9" style="31"/>
+    <col min="7" max="8" width="8.625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3391,11 +4345,11 @@
       <c r="D1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>88</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="G1" s="7">
         <v>80</v>
@@ -3423,7 +4377,7 @@
       <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
@@ -3443,7 +4397,7 @@
       <c r="E3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
@@ -3461,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
@@ -3478,11 +4432,11 @@
       <c r="D5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>89</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="G5" s="7">
         <v>70</v>
@@ -3510,7 +4464,7 @@
       <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
@@ -3530,7 +4484,7 @@
       <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
@@ -3548,7 +4502,7 @@
         <v>2.5</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
@@ -3565,11 +4519,11 @@
       <c r="D9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="15" t="s">
+      <c r="E9" s="15" t="s">
         <v>90</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>104</v>
       </c>
       <c r="G9" s="7">
         <v>30</v>
@@ -3597,7 +4551,7 @@
       <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
@@ -3617,7 +4571,7 @@
       <c r="E11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
@@ -3635,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
@@ -3652,11 +4606,11 @@
       <c r="D13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>91</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>105</v>
       </c>
       <c r="G13" s="7">
         <v>40</v>
@@ -3684,7 +4638,7 @@
       <c r="E14" s="4">
         <v>3</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
@@ -3704,7 +4658,7 @@
       <c r="E15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
@@ -3722,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
@@ -3739,11 +4693,11 @@
       <c r="D17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="15" t="s">
+      <c r="E17" s="15" t="s">
         <v>92</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="G17" s="7">
         <v>45</v>
@@ -3771,7 +4725,7 @@
       <c r="E18" s="4">
         <v>3</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
@@ -3791,7 +4745,7 @@
       <c r="E19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
@@ -3809,7 +4763,7 @@
         <v>0.84</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
@@ -3826,11 +4780,11 @@
       <c r="D21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>93</v>
+      <c r="E21" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="G21" s="7">
         <v>50</v>
@@ -3858,7 +4812,7 @@
       <c r="E22" s="4">
         <v>3</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
@@ -3878,7 +4832,7 @@
       <c r="E23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
@@ -3896,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
@@ -3913,11 +4867,11 @@
       <c r="D25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>94</v>
+      <c r="E25" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="G25" s="7">
         <v>60</v>
@@ -3945,11 +4899,11 @@
       <c r="E26" s="4">
         <v>2</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="34">
+    <row r="27" spans="1:9" ht="33">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -3965,7 +4919,7 @@
       <c r="E27" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
@@ -3983,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
@@ -4001,7 +4955,7 @@
         <v>0.1</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
@@ -4018,11 +4972,11 @@
       <c r="D30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>95</v>
+      <c r="E30" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="G30" s="7">
         <v>70</v>
@@ -4050,7 +5004,7 @@
       <c r="E31" s="4">
         <v>2</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
@@ -4070,7 +5024,7 @@
       <c r="E32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
@@ -4088,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="F33" s="29"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
@@ -4106,7 +5060,7 @@
         <v>0.1</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="30"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
@@ -4118,16 +5072,16 @@
         <v>0</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>113</v>
       </c>
       <c r="G35" s="7">
         <v>4444</v>
@@ -4152,7 +5106,7 @@
       <c r="D36" s="4">
         <v>0</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="33">
         <v>2</v>
       </c>
       <c r="G36" s="4"/>
@@ -4169,9 +5123,6 @@
         <v>-1</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G37" s="4"/>
@@ -4190,7 +5141,6 @@
       <c r="D38" s="4">
         <v>1</v>
       </c>
-      <c r="E38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
@@ -4205,13 +5155,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A6246A-9F7B-4896-8792-1C606A73A571}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="8" width="8.58203125" style="10"/>
+    <col min="1" max="5" width="8.625" style="10"/>
+    <col min="6" max="6" width="8.625" style="31"/>
+    <col min="7" max="8" width="8.625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4222,16 +5174,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>104</v>
+      <c r="F1" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="G1" s="7">
         <v>120</v>
@@ -4253,7 +5205,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
@@ -4271,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
@@ -4283,16 +5235,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>105</v>
+        <v>99</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>115</v>
       </c>
       <c r="G4" s="7">
         <v>150</v>
@@ -4314,7 +5266,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
@@ -4332,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>

--- a/Plan/GameData/UnitDatabase_v03.xlsx
+++ b/Plan/GameData/UnitDatabase_v03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80927C63-BEA3-402F-96C5-1EA51E613D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B81978-3F00-4345-B876-F90F5620EBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="870" windowWidth="25725" windowHeight="13800" activeTab="3" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
+    <workbookView xWindow="6320" yWindow="1360" windowWidth="23190" windowHeight="18160" activeTab="3" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="123">
   <si>
     <t>Move Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1353,6 +1353,34 @@
   </si>
   <si>
     <t>Tasers are heavenly guardians who watch out for threats to the realm. It appears like the wind in a dangerous scene and threatens enemies to protect allies! Gives enemy units a stun effect for a certain period of time.</t>
+  </si>
+  <si>
+    <t>공격속도증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 기절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allies invincible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Inc Defensive </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inc AttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1650,8 +1678,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1683,26 +1729,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2020,36 +2048,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECDDCD4-1D27-4FE4-92BB-9026CE350CFB}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.625" style="1"/>
+    <col min="9" max="9" width="21.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -2127,7 +2155,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2148,7 +2176,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="22"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -2167,7 +2195,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="23"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -2186,17 +2214,17 @@
       <c r="I7" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
@@ -2266,7 +2294,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="30" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2280,7 +2308,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="25"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="2">
         <v>0</v>
       </c>
@@ -2295,7 +2323,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="25"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -2310,7 +2338,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="25"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -2325,7 +2353,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="25"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -2340,7 +2368,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="26"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="2">
         <v>4</v>
       </c>
@@ -2352,16 +2380,16 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9">
@@ -2454,16 +2482,16 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
@@ -2568,28 +2596,28 @@
       <c r="H32" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7">
@@ -2676,16 +2704,16 @@
       <c r="H42" s="4"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7">
@@ -2772,16 +2800,16 @@
       <c r="H48" s="4"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7">
@@ -2868,16 +2896,16 @@
       <c r="H54" s="4"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="7">
@@ -2964,16 +2992,16 @@
       <c r="H60" s="4"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="7">
@@ -3060,16 +3088,16 @@
       <c r="H66" s="4"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7">
@@ -3156,16 +3184,16 @@
       <c r="H72" s="4"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7">
@@ -3270,16 +3298,16 @@
       <c r="H79" s="4"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="17" t="s">
+      <c r="A81" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
@@ -3384,28 +3412,28 @@
       <c r="H86" s="2"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="7">
@@ -3466,16 +3494,16 @@
       <c r="H95" s="2"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
@@ -3537,17 +3565,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A56:H56"/>
     <mergeCell ref="A89:H89"/>
     <mergeCell ref="A92:H92"/>
     <mergeCell ref="A97:H97"/>
@@ -3555,6 +3572,17 @@
     <mergeCell ref="A68:H68"/>
     <mergeCell ref="A74:H74"/>
     <mergeCell ref="A81:H81"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3567,14 +3595,14 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection sqref="A1:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="5" width="8.625" style="10"/>
-    <col min="6" max="6" width="8.625" style="31"/>
-    <col min="7" max="8" width="8.625" style="10"/>
+    <col min="1" max="5" width="8.58203125" style="10"/>
+    <col min="6" max="6" width="8.58203125" style="20"/>
+    <col min="7" max="8" width="8.58203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3593,7 +3621,7 @@
       <c r="E1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="16" t="s">
         <v>102</v>
       </c>
       <c r="G1" s="7">
@@ -3622,7 +3650,7 @@
       <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="28"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
@@ -3642,7 +3670,7 @@
       <c r="E3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="28"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
@@ -3660,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="28"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
@@ -3680,7 +3708,7 @@
       <c r="E5" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="16" t="s">
         <v>103</v>
       </c>
       <c r="G5" s="7">
@@ -3709,7 +3737,7 @@
       <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
@@ -3729,7 +3757,7 @@
       <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
@@ -3747,7 +3775,7 @@
         <v>2.5</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="28"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
@@ -3767,7 +3795,7 @@
       <c r="E9" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="16" t="s">
         <v>104</v>
       </c>
       <c r="G9" s="7">
@@ -3796,7 +3824,7 @@
       <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
@@ -3816,7 +3844,7 @@
       <c r="E11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
@@ -3834,7 +3862,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="28"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
@@ -3854,7 +3882,7 @@
       <c r="E13" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="16" t="s">
         <v>105</v>
       </c>
       <c r="G13" s="7">
@@ -3883,7 +3911,7 @@
       <c r="E14" s="4">
         <v>3</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
@@ -3903,7 +3931,7 @@
       <c r="E15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
@@ -3921,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="28"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
@@ -3941,7 +3969,7 @@
       <c r="E17" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="16" t="s">
         <v>106</v>
       </c>
       <c r="G17" s="7">
@@ -3970,7 +3998,7 @@
       <c r="E18" s="4">
         <v>3</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
@@ -3990,7 +4018,7 @@
       <c r="E19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
@@ -4008,7 +4036,7 @@
         <v>0.84</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="28"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
@@ -4025,10 +4053,10 @@
       <c r="D21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="16" t="s">
         <v>108</v>
       </c>
       <c r="G21" s="7">
@@ -4057,7 +4085,7 @@
       <c r="E22" s="4">
         <v>3</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
@@ -4077,7 +4105,7 @@
       <c r="E23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
@@ -4095,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="28"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
@@ -4112,10 +4140,10 @@
       <c r="D25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="16" t="s">
         <v>110</v>
       </c>
       <c r="G25" s="7">
@@ -4144,11 +4172,11 @@
       <c r="E26" s="4">
         <v>2</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="33">
+    <row r="27" spans="1:9" ht="34">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -4164,7 +4192,7 @@
       <c r="E27" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
@@ -4182,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="28"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
@@ -4200,7 +4228,7 @@
         <v>0.1</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="28"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
@@ -4220,7 +4248,7 @@
       <c r="E30" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="16" t="s">
         <v>111</v>
       </c>
       <c r="G30" s="7">
@@ -4249,7 +4277,7 @@
       <c r="E31" s="4">
         <v>2</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="17"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
@@ -4264,12 +4292,12 @@
         <v>1</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="17"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
@@ -4287,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="29"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
@@ -4305,7 +4333,7 @@
         <v>0.1</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="30"/>
+      <c r="F34" s="19"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
@@ -4321,15 +4349,15 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection sqref="A1:H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="4" width="8.625" style="10"/>
+    <col min="1" max="4" width="8.58203125" style="10"/>
     <col min="5" max="5" width="9" style="10"/>
-    <col min="6" max="6" width="9" style="31"/>
-    <col min="7" max="8" width="8.625" style="10"/>
+    <col min="6" max="6" width="9" style="20"/>
+    <col min="7" max="8" width="8.58203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4348,7 +4376,7 @@
       <c r="E1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="16" t="s">
         <v>102</v>
       </c>
       <c r="G1" s="7">
@@ -4377,7 +4405,7 @@
       <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="28"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
@@ -4397,7 +4425,7 @@
       <c r="E3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="28"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
@@ -4415,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="28"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
@@ -4435,7 +4463,7 @@
       <c r="E5" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="16" t="s">
         <v>103</v>
       </c>
       <c r="G5" s="7">
@@ -4464,7 +4492,7 @@
       <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
@@ -4484,7 +4512,7 @@
       <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
@@ -4502,7 +4530,7 @@
         <v>2.5</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="28"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
@@ -4522,7 +4550,7 @@
       <c r="E9" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="16" t="s">
         <v>104</v>
       </c>
       <c r="G9" s="7">
@@ -4551,7 +4579,7 @@
       <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
@@ -4571,7 +4599,7 @@
       <c r="E11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
@@ -4589,7 +4617,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="28"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
@@ -4609,7 +4637,7 @@
       <c r="E13" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="16" t="s">
         <v>105</v>
       </c>
       <c r="G13" s="7">
@@ -4638,7 +4666,7 @@
       <c r="E14" s="4">
         <v>3</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
@@ -4658,7 +4686,7 @@
       <c r="E15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
@@ -4676,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="28"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
@@ -4696,7 +4724,7 @@
       <c r="E17" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="16" t="s">
         <v>106</v>
       </c>
       <c r="G17" s="7">
@@ -4725,7 +4753,7 @@
       <c r="E18" s="4">
         <v>3</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
@@ -4745,7 +4773,7 @@
       <c r="E19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
@@ -4763,7 +4791,7 @@
         <v>0.84</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="28"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
@@ -4780,10 +4808,10 @@
       <c r="D21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="16" t="s">
         <v>108</v>
       </c>
       <c r="G21" s="7">
@@ -4812,7 +4840,7 @@
       <c r="E22" s="4">
         <v>3</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
@@ -4832,7 +4860,7 @@
       <c r="E23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
@@ -4850,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="28"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
@@ -4867,10 +4895,10 @@
       <c r="D25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="16" t="s">
         <v>110</v>
       </c>
       <c r="G25" s="7">
@@ -4899,11 +4927,11 @@
       <c r="E26" s="4">
         <v>2</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="33">
+    <row r="27" spans="1:9" ht="34">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -4917,9 +4945,9 @@
         <v>73</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="28"/>
+        <v>121</v>
+      </c>
+      <c r="F27" s="17"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
@@ -4937,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="28"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
@@ -4955,7 +4983,7 @@
         <v>0.1</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="28"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
@@ -4975,7 +5003,7 @@
       <c r="E30" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="16" t="s">
         <v>111</v>
       </c>
       <c r="G30" s="7">
@@ -5004,7 +5032,7 @@
       <c r="E31" s="4">
         <v>2</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="17"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
@@ -5019,12 +5047,12 @@
         <v>1</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="28"/>
+        <v>122</v>
+      </c>
+      <c r="F32" s="17"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
@@ -5042,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="29"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
@@ -5060,7 +5088,7 @@
         <v>0.1</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="30"/>
+      <c r="F34" s="19"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
@@ -5080,7 +5108,7 @@
       <c r="E35" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="16" t="s">
         <v>113</v>
       </c>
       <c r="G35" s="7">
@@ -5106,7 +5134,7 @@
       <c r="D36" s="4">
         <v>0</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="22">
         <v>2</v>
       </c>
       <c r="G36" s="4"/>
@@ -5156,14 +5184,14 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="5" width="8.625" style="10"/>
-    <col min="6" max="6" width="8.625" style="31"/>
-    <col min="7" max="8" width="8.625" style="10"/>
+    <col min="1" max="5" width="8.58203125" style="10"/>
+    <col min="6" max="6" width="8.58203125" style="20"/>
+    <col min="7" max="8" width="8.58203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5182,7 +5210,7 @@
       <c r="E1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="16" t="s">
         <v>114</v>
       </c>
       <c r="G1" s="7">
@@ -5197,15 +5225,15 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="28"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
@@ -5223,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="30"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
@@ -5243,7 +5271,7 @@
       <c r="E4" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="16" t="s">
         <v>115</v>
       </c>
       <c r="G4" s="7">
@@ -5258,15 +5286,15 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="28"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
@@ -5284,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="30"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>

--- a/Plan/GameData/UnitDatabase_v03.xlsx
+++ b/Plan/GameData/UnitDatabase_v03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B81978-3F00-4345-B876-F90F5620EBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312E43ED-A119-4C53-8B38-FDDD1CCE756E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="1360" windowWidth="23190" windowHeight="18160" activeTab="3" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
+    <workbookView xWindow="2980" yWindow="3190" windowWidth="23460" windowHeight="15370" activeTab="2" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -1699,6 +1699,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1727,9 +1730,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2048,8 +2048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECDDCD4-1D27-4FE4-92BB-9026CE350CFB}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -2067,17 +2067,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -2155,7 +2155,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2176,7 +2176,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -2195,7 +2195,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -2214,17 +2214,17 @@
       <c r="I7" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
@@ -2294,7 +2294,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2308,7 +2308,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="2">
         <v>0</v>
       </c>
@@ -2323,7 +2323,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -2338,7 +2338,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="31"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -2353,7 +2353,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="31"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -2368,7 +2368,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="32"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="2">
         <v>4</v>
       </c>
@@ -2380,16 +2380,16 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9">
@@ -2482,16 +2482,16 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
@@ -2596,28 +2596,28 @@
       <c r="H32" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7">
@@ -2704,16 +2704,16 @@
       <c r="H42" s="4"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7">
@@ -2800,16 +2800,16 @@
       <c r="H48" s="4"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7">
@@ -2896,16 +2896,16 @@
       <c r="H54" s="4"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="7">
@@ -2992,16 +2992,16 @@
       <c r="H60" s="4"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="7">
@@ -3088,16 +3088,16 @@
       <c r="H66" s="4"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7">
@@ -3184,16 +3184,16 @@
       <c r="H72" s="4"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7">
@@ -3298,16 +3298,16 @@
       <c r="H79" s="4"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
@@ -3412,28 +3412,28 @@
       <c r="H86" s="2"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="33" t="s">
+      <c r="A89" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="7">
@@ -3494,16 +3494,16 @@
       <c r="H95" s="2"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
@@ -3565,6 +3565,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A56:H56"/>
     <mergeCell ref="A89:H89"/>
     <mergeCell ref="A92:H92"/>
     <mergeCell ref="A97:H97"/>
@@ -3572,17 +3583,6 @@
     <mergeCell ref="A68:H68"/>
     <mergeCell ref="A74:H74"/>
     <mergeCell ref="A81:H81"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3594,8 +3594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1C5E9E-FD4C-4CA6-B5C3-6FB5BFB8ED60}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -4309,7 +4309,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="13">
         <v>1</v>
@@ -4348,8 +4348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A38EC5C-4514-4B72-A7E2-347F92EED1EC}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -5064,7 +5064,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="13">
         <v>1</v>
@@ -5183,7 +5183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A6246A-9F7B-4896-8792-1C606A73A571}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>

--- a/Plan/GameData/UnitDatabase_v03.xlsx
+++ b/Plan/GameData/UnitDatabase_v03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\Plan\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312E43ED-A119-4C53-8B38-FDDD1CCE756E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C36E10-B0DD-4675-9131-F2B6B70F00E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="3190" windowWidth="23460" windowHeight="15370" activeTab="2" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
+    <workbookView xWindow="165" yWindow="660" windowWidth="23070" windowHeight="13800" activeTab="2" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="121">
   <si>
     <t>Move Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1372,14 +1372,6 @@
   </si>
   <si>
     <t>enemy stun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Inc Defensive </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inc AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1699,9 +1691,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1730,6 +1719,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2048,36 +2040,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECDDCD4-1D27-4FE4-92BB-9026CE350CFB}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.58203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.08203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.58203125" style="1"/>
+    <col min="9" max="9" width="21.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -2155,7 +2147,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2176,7 +2168,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="29"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -2195,7 +2187,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="30"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -2214,17 +2206,17 @@
       <c r="I7" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
@@ -2294,7 +2286,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2308,7 +2300,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="32"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="2">
         <v>0</v>
       </c>
@@ -2323,7 +2315,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="32"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -2338,7 +2330,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="32"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -2353,7 +2345,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="32"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -2368,7 +2360,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="33"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="2">
         <v>4</v>
       </c>
@@ -2380,16 +2372,16 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9">
@@ -2482,16 +2474,16 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
@@ -2596,28 +2588,28 @@
       <c r="H32" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7">
@@ -2704,16 +2696,16 @@
       <c r="H42" s="4"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7">
@@ -2800,16 +2792,16 @@
       <c r="H48" s="4"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7">
@@ -2896,16 +2888,16 @@
       <c r="H54" s="4"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="7">
@@ -2992,16 +2984,16 @@
       <c r="H60" s="4"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="7">
@@ -3088,16 +3080,16 @@
       <c r="H66" s="4"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7">
@@ -3184,16 +3176,16 @@
       <c r="H72" s="4"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7">
@@ -3298,16 +3290,16 @@
       <c r="H79" s="4"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
@@ -3412,28 +3404,28 @@
       <c r="H86" s="2"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="7">
@@ -3494,16 +3486,16 @@
       <c r="H95" s="2"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="24" t="s">
+      <c r="A97" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
@@ -3565,17 +3557,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A56:H56"/>
     <mergeCell ref="A89:H89"/>
     <mergeCell ref="A92:H92"/>
     <mergeCell ref="A97:H97"/>
@@ -3583,6 +3564,17 @@
     <mergeCell ref="A68:H68"/>
     <mergeCell ref="A74:H74"/>
     <mergeCell ref="A81:H81"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3594,15 +3586,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1C5E9E-FD4C-4CA6-B5C3-6FB5BFB8ED60}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="5" width="8.58203125" style="10"/>
-    <col min="6" max="6" width="8.58203125" style="20"/>
-    <col min="7" max="8" width="8.58203125" style="10"/>
+    <col min="1" max="5" width="8.625" style="10"/>
+    <col min="6" max="6" width="8.625" style="20"/>
+    <col min="7" max="8" width="8.625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3628,7 +3620,7 @@
         <v>80</v>
       </c>
       <c r="H1" s="7">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I1">
         <v>1</v>
@@ -3645,7 +3637,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -3712,10 +3704,10 @@
         <v>103</v>
       </c>
       <c r="G5" s="7">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -3732,7 +3724,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -3763,16 +3755,16 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B8" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D8" s="4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="17"/>
@@ -3799,10 +3791,10 @@
         <v>104</v>
       </c>
       <c r="G9" s="7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -3822,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="4"/>
@@ -3856,7 +3848,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -3886,10 +3878,10 @@
         <v>105</v>
       </c>
       <c r="G13" s="7">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -3900,13 +3892,13 @@
         <v>200</v>
       </c>
       <c r="B14" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C14" s="4">
         <v>30</v>
       </c>
       <c r="D14" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E14" s="4">
         <v>3</v>
@@ -3943,10 +3935,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="17"/>
@@ -3973,10 +3965,10 @@
         <v>106</v>
       </c>
       <c r="G17" s="7">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="I17">
         <v>5</v>
@@ -3987,13 +3979,13 @@
         <v>150</v>
       </c>
       <c r="B18" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4">
         <v>10</v>
       </c>
       <c r="D18" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E18" s="4">
         <v>3</v>
@@ -4030,10 +4022,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D20" s="4">
-        <v>0.84</v>
+        <v>1.3</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="17"/>
@@ -4060,10 +4052,10 @@
         <v>108</v>
       </c>
       <c r="G21" s="7">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H21" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I21">
         <v>6</v>
@@ -4080,7 +4072,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E22" s="4">
         <v>3</v>
@@ -4117,10 +4109,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="17"/>
@@ -4147,10 +4139,10 @@
         <v>110</v>
       </c>
       <c r="G25" s="7">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H25" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I25">
         <v>7</v>
@@ -4167,7 +4159,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
@@ -4176,7 +4168,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="34">
+    <row r="27" spans="1:9" ht="33">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -4252,10 +4244,10 @@
         <v>111</v>
       </c>
       <c r="G30" s="7">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H30" s="7">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="I30">
         <v>8</v>
@@ -4266,7 +4258,7 @@
         <v>150</v>
       </c>
       <c r="B31" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4">
         <v>5</v>
@@ -4309,7 +4301,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="13">
         <v>1</v>
@@ -4348,16 +4340,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A38EC5C-4514-4B72-A7E2-347F92EED1EC}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="4" width="8.58203125" style="10"/>
+    <col min="1" max="4" width="8.625" style="10"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="9" style="20"/>
-    <col min="7" max="8" width="8.58203125" style="10"/>
+    <col min="7" max="8" width="8.625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4383,7 +4375,7 @@
         <v>80</v>
       </c>
       <c r="H1" s="7">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I1">
         <v>1</v>
@@ -4400,7 +4392,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -4467,10 +4459,10 @@
         <v>103</v>
       </c>
       <c r="G5" s="7">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -4487,7 +4479,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -4518,16 +4510,16 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B8" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D8" s="4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="17"/>
@@ -4554,10 +4546,10 @@
         <v>104</v>
       </c>
       <c r="G9" s="7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -4577,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="4"/>
@@ -4611,7 +4603,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -4641,10 +4633,10 @@
         <v>105</v>
       </c>
       <c r="G13" s="7">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -4655,13 +4647,13 @@
         <v>200</v>
       </c>
       <c r="B14" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C14" s="4">
         <v>30</v>
       </c>
       <c r="D14" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E14" s="4">
         <v>3</v>
@@ -4698,10 +4690,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="17"/>
@@ -4728,10 +4720,10 @@
         <v>106</v>
       </c>
       <c r="G17" s="7">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="I17">
         <v>5</v>
@@ -4742,13 +4734,13 @@
         <v>150</v>
       </c>
       <c r="B18" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4">
         <v>10</v>
       </c>
       <c r="D18" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E18" s="4">
         <v>3</v>
@@ -4785,10 +4777,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D20" s="4">
-        <v>0.84</v>
+        <v>1.3</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="17"/>
@@ -4815,10 +4807,10 @@
         <v>108</v>
       </c>
       <c r="G21" s="7">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H21" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I21">
         <v>6</v>
@@ -4835,7 +4827,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E22" s="4">
         <v>3</v>
@@ -4872,10 +4864,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="17"/>
@@ -4902,10 +4894,10 @@
         <v>110</v>
       </c>
       <c r="G25" s="7">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H25" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I25">
         <v>7</v>
@@ -4922,7 +4914,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
@@ -4931,7 +4923,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="34">
+    <row r="27" spans="1:9" ht="33">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -4945,7 +4937,7 @@
         <v>73</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
@@ -5007,10 +4999,10 @@
         <v>111</v>
       </c>
       <c r="G30" s="7">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H30" s="7">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="I30">
         <v>8</v>
@@ -5021,7 +5013,7 @@
         <v>150</v>
       </c>
       <c r="B31" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4">
         <v>5</v>
@@ -5050,7 +5042,7 @@
         <v>116</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
@@ -5064,7 +5056,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="13">
         <v>1</v>
@@ -5184,14 +5176,14 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H6"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="5" width="8.58203125" style="10"/>
-    <col min="6" max="6" width="8.58203125" style="20"/>
-    <col min="7" max="8" width="8.58203125" style="10"/>
+    <col min="1" max="5" width="8.625" style="10"/>
+    <col min="6" max="6" width="8.625" style="20"/>
+    <col min="7" max="8" width="8.625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">

--- a/Plan/GameData/UnitDatabase_v03.xlsx
+++ b/Plan/GameData/UnitDatabase_v03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C36E10-B0DD-4675-9131-F2B6B70F00E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83092429-9BEC-4978-BE5C-985D16A127AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="660" windowWidth="23070" windowHeight="13800" activeTab="2" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
+    <workbookView xWindow="2430" yWindow="510" windowWidth="23070" windowHeight="13800" activeTab="3" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="136">
   <si>
     <t>Move Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,9 +432,6 @@
   </si>
   <si>
     <t>피스는 왕국의 평화를 책임지는 믿음직한 비둘기입니다. 순백의 날개를 펼치면 아군들은 기쁨에 가득찹니다! 아군 유닛에게 일정 시간 무적 효과를 부여합니다</t>
-  </si>
-  <si>
-    <t>테이저는 왕국의 위협을 감시하는 하늘의 지킴이입니다. 위험한 현장에는 바람같이 나타나 적을 위협하여 아군을 지킵니다! 적 유닛에게 일정 시간 스턴 효과를 부여합니다</t>
   </si>
   <si>
     <t>Because of the carapace that always loses water, the mercenary Tuca, who has a lot of manna, made them find an empty cannon one day. As you can see, it doesn't fit right? Oh, don't ask me how to get it. It has a habit of hiding because it is afraid of attack. Instead, block your team from enemy attacks with high health and defense.</t>
@@ -1349,12 +1346,6 @@
     <t>Appears when a player gets a series of questions wrong.</t>
   </si>
   <si>
-    <t>Peace is a reliable pigeon responsible for the peace of the kingdom. When you spread your pure white wings, your allies will be filled with joy! Gives allied units invincibility for a certain period of time.</t>
-  </si>
-  <si>
-    <t>Tasers are heavenly guardians who watch out for threats to the realm. It appears like the wind in a dangerous scene and threatens enemies to protect allies! Gives enemy units a stun effect for a certain period of time.</t>
-  </si>
-  <si>
     <t>공격속도증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1373,13 +1364,70 @@
   <si>
     <t>enemy stun</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투카 용병단은 더 강한 껍데기를 갖게 되었지만 겁쟁이인 성격은 변하지 않았네요. 공격을 무서워해서 숨는 습성이 있습니다. 대신 높은 체력과 방어력으로 팀을 적의 공격으로부터 막아줍니다</t>
+  </si>
+  <si>
+    <t>The Tuka Mercenaries now have stronger armor, but their cowardly nature remains unchanged. They have a tendency to hide when faced with attacks, using their high health and defense to shield the team from enemy assaults.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕배 용병단은 곰의 옷을 입은 귀엽지만 용감한 용병입니다! 단단한 몸으로 한 번에 강력한 공격을 합니다</t>
+  </si>
+  <si>
+    <t>The Deokbae Mercenaries, dressed in bear outfits, are adorable yet brave fighters. With their sturdy bodies, they deliver powerful attacks that can overwhelm enemies in a single strike.</t>
+  </si>
+  <si>
+    <t>The RamG Dual Swordsmen are fearless warriors skilled in dual-wielding swords. Despite their small stature, they utilize swift movements and attacks to drain the spirits of their adversaries. They strike twice in quick succession.</t>
+  </si>
+  <si>
+    <t>금호 창술단은 창을 배우고 난 뒤 건실하게 살아가고 있습니다. 긴 창을 이용하여 조금 더 멀리서 강한 공격을 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The GoldHorse Spear Masters, having mastered the art of the spear, lead disciplined lives. Using their long spears, they launch potent long-range attacks from a distance.</t>
+  </si>
+  <si>
+    <t>아라 궁수단은 활을 쏘는 연습을 매일 하는 용병단입니다. 활을 이용하여 원거리에서 적을 공격합니다</t>
+  </si>
+  <si>
+    <t>The Ara Archers are a group of mercenaries who practice archery daily. Armed with bows, they rain down long-range attacks upon their foes.</t>
+  </si>
+  <si>
+    <t>카마 마법사단은 그들의 장기를 활용하여 엄청난 마법을 보여주려 합니다! 전기 구체를 발사하여 원거리에서 공격합니다</t>
+  </si>
+  <si>
+    <t>The Cama Sorcerer Guild aims to showcase incredible magic using their chess-like instruments. They launch energy orbs to attack from a distance.</t>
+  </si>
+  <si>
+    <t>홀리 성직자단은 전투에 참여하고 싶지 않았지만 세계의 균형을 위해 전투에 참여하였습니다. 공격을 하지 않고 일정 범위 내의 아군에게 체력, 방어력 증가 버프를 부여합니다</t>
+  </si>
+  <si>
+    <t>Reluctant to engage in combat, the Holy Priests joined the battle to maintain the world's balance. They refrain from attacking but provide nearby allies with health and defense buffs.</t>
+  </si>
+  <si>
+    <t>바빗 음악단은 여유롭게 음악을 즐기는 토끼들이 뭉친 집단입니다. 일정 범위 내의 아군에게 공속, 이속 증가 버프를 제공합니다. 적이 근접하면 약한 공격을 합니다</t>
+  </si>
+  <si>
+    <t>The Barbit Musicians, a gathering of relaxed rabbits, enjoy making music together. They grant buffs of attack speed and movement speed to allies within a certain range. When enemies draw near, they deliver weak attacks.</t>
+  </si>
+  <si>
+    <t>Peace, a dependable dove responsible for the kingdom's peace, spreads its pure wings, filling allies with joy. It bestows invincibility upon allied units for a limited time.</t>
+  </si>
+  <si>
+    <t>테이저는 위험한 현장에는 바람같이 나타나 적을 위협하여 아군을 지킵니다! 적 유닛에게 일정 시간 스턴 효과를 부여합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taser emerges like the wind on dangerous terrain, threatening enemies and safeguarding allies. It inflicts a stun effect on enemy units for a specific duration.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1438,6 +1486,30 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1621,7 +1693,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1691,6 +1763,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1721,7 +1796,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2059,17 +2149,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -2147,7 +2237,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2168,7 +2258,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -2187,7 +2277,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -2206,17 +2296,17 @@
       <c r="I7" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
@@ -2286,7 +2376,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2300,7 +2390,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="2">
         <v>0</v>
       </c>
@@ -2315,7 +2405,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -2330,7 +2420,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="31"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -2345,7 +2435,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="31"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -2360,7 +2450,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="32"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="2">
         <v>4</v>
       </c>
@@ -2372,16 +2462,16 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9">
@@ -2474,16 +2564,16 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
@@ -2588,28 +2678,28 @@
       <c r="H32" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7">
@@ -2696,16 +2786,16 @@
       <c r="H42" s="4"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7">
@@ -2792,16 +2882,16 @@
       <c r="H48" s="4"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7">
@@ -2888,16 +2978,16 @@
       <c r="H54" s="4"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="7">
@@ -2984,16 +3074,16 @@
       <c r="H60" s="4"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="7">
@@ -3080,16 +3170,16 @@
       <c r="H66" s="4"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7">
@@ -3176,16 +3266,16 @@
       <c r="H72" s="4"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7">
@@ -3290,16 +3380,16 @@
       <c r="H79" s="4"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
@@ -3404,28 +3494,28 @@
       <c r="H86" s="2"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="33" t="s">
+      <c r="A89" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="7">
@@ -3486,16 +3576,16 @@
       <c r="H95" s="2"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
@@ -3557,6 +3647,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A56:H56"/>
     <mergeCell ref="A89:H89"/>
     <mergeCell ref="A92:H92"/>
     <mergeCell ref="A97:H97"/>
@@ -3564,17 +3665,6 @@
     <mergeCell ref="A68:H68"/>
     <mergeCell ref="A74:H74"/>
     <mergeCell ref="A81:H81"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3586,8 +3676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1C5E9E-FD4C-4CA6-B5C3-6FB5BFB8ED60}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3610,11 +3700,11 @@
       <c r="D1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>102</v>
+      <c r="E1" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>119</v>
       </c>
       <c r="G1" s="7">
         <v>80</v>
@@ -3639,10 +3729,10 @@
       <c r="D2" s="4">
         <v>4</v>
       </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="36">
+        <v>1</v>
+      </c>
+      <c r="F2" s="36"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
@@ -3659,10 +3749,10 @@
       <c r="D3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
@@ -3679,8 +3769,8 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="17"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
@@ -3697,11 +3787,11 @@
       <c r="D5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>103</v>
+      <c r="E5" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>121</v>
       </c>
       <c r="G5" s="7">
         <v>90</v>
@@ -3726,10 +3816,10 @@
       <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="17"/>
+      <c r="E6" s="36">
+        <v>2</v>
+      </c>
+      <c r="F6" s="36"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
@@ -3746,10 +3836,10 @@
       <c r="D7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
@@ -3766,8 +3856,8 @@
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
@@ -3784,11 +3874,11 @@
       <c r="D9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>104</v>
+      <c r="F9" s="35" t="s">
+        <v>122</v>
       </c>
       <c r="G9" s="7">
         <v>50</v>
@@ -3813,10 +3903,10 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-      <c r="F10" s="17"/>
+      <c r="E10" s="36">
+        <v>2</v>
+      </c>
+      <c r="F10" s="36"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
@@ -3833,10 +3923,10 @@
       <c r="D11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
@@ -3853,8 +3943,8 @@
       <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
@@ -3871,11 +3961,11 @@
       <c r="D13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>105</v>
+      <c r="E13" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>124</v>
       </c>
       <c r="G13" s="7">
         <v>75</v>
@@ -3900,10 +3990,10 @@
       <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="36">
         <v>3</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
@@ -3920,10 +4010,10 @@
       <c r="D15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
@@ -3940,8 +4030,8 @@
       <c r="D16" s="4">
         <v>1.5</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
@@ -3958,11 +4048,11 @@
       <c r="D17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>106</v>
+      <c r="E17" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>126</v>
       </c>
       <c r="G17" s="7">
         <v>80</v>
@@ -3987,10 +4077,10 @@
       <c r="D18" s="4">
         <v>2</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="36">
         <v>3</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
@@ -4007,10 +4097,10 @@
       <c r="D19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
@@ -4027,8 +4117,8 @@
       <c r="D20" s="4">
         <v>1.3</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="17"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
@@ -4045,11 +4135,11 @@
       <c r="D21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>108</v>
+      <c r="E21" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>128</v>
       </c>
       <c r="G21" s="7">
         <v>90</v>
@@ -4074,10 +4164,10 @@
       <c r="D22" s="4">
         <v>2</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="36">
         <v>3</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
@@ -4094,10 +4184,10 @@
       <c r="D23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
@@ -4114,8 +4204,8 @@
       <c r="D24" s="4">
         <v>2</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="17"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
@@ -4132,11 +4222,11 @@
       <c r="D25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>110</v>
+      <c r="E25" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>130</v>
       </c>
       <c r="G25" s="7">
         <v>120</v>
@@ -4161,10 +4251,10 @@
       <c r="D26" s="4">
         <v>3</v>
       </c>
-      <c r="E26" s="4">
-        <v>2</v>
-      </c>
-      <c r="F26" s="17"/>
+      <c r="E26" s="36">
+        <v>2</v>
+      </c>
+      <c r="F26" s="36"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
@@ -4181,10 +4271,10 @@
       <c r="D27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="17"/>
+      <c r="F27" s="36"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
@@ -4201,8 +4291,8 @@
       <c r="D28" s="4">
         <v>1</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="17"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
@@ -4219,8 +4309,8 @@
       <c r="D29" s="4">
         <v>0.1</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="17"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
@@ -4237,11 +4327,11 @@
       <c r="D30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>111</v>
+      <c r="E30" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>132</v>
       </c>
       <c r="G30" s="7">
         <v>130</v>
@@ -4266,10 +4356,10 @@
       <c r="D31" s="4">
         <v>2</v>
       </c>
-      <c r="E31" s="4">
-        <v>2</v>
-      </c>
-      <c r="F31" s="17"/>
+      <c r="E31" s="36">
+        <v>2</v>
+      </c>
+      <c r="F31" s="36"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
@@ -4284,12 +4374,12 @@
         <v>1</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="17"/>
+      <c r="F32" s="36"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
@@ -4306,8 +4396,8 @@
       <c r="D33" s="13">
         <v>1</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="18"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
@@ -4324,8 +4414,8 @@
       <c r="D34" s="2">
         <v>0.1</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="19"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
@@ -4340,8 +4430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A38EC5C-4514-4B72-A7E2-347F92EED1EC}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4369,7 +4459,7 @@
         <v>88</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G1" s="7">
         <v>80</v>
@@ -4456,7 +4546,7 @@
         <v>89</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="7">
         <v>90</v>
@@ -4543,7 +4633,7 @@
         <v>90</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="7">
         <v>50</v>
@@ -4630,7 +4720,7 @@
         <v>91</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" s="7">
         <v>75</v>
@@ -4717,7 +4807,7 @@
         <v>92</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7">
         <v>80</v>
@@ -4801,10 +4891,10 @@
         <v>67</v>
       </c>
       <c r="E21" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="G21" s="7">
         <v>90</v>
@@ -4888,10 +4978,10 @@
         <v>70</v>
       </c>
       <c r="E25" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>110</v>
       </c>
       <c r="G25" s="7">
         <v>120</v>
@@ -4996,7 +5086,7 @@
         <v>93</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G30" s="7">
         <v>130</v>
@@ -5039,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>41</v>
@@ -5098,10 +5188,10 @@
         <v>95</v>
       </c>
       <c r="E35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="G35" s="7">
         <v>4444</v>
@@ -5175,8 +5265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A6246A-9F7B-4896-8792-1C606A73A571}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5199,11 +5289,11 @@
       <c r="D1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>114</v>
+      <c r="F1" s="35" t="s">
+        <v>133</v>
       </c>
       <c r="G1" s="7">
         <v>120</v>
@@ -5217,15 +5307,15 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="17"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
@@ -5242,8 +5332,8 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="19"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
@@ -5260,11 +5350,11 @@
       <c r="D4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>115</v>
+      <c r="E4" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>135</v>
       </c>
       <c r="G4" s="7">
         <v>150</v>
@@ -5278,15 +5368,15 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="17"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
@@ -5303,8 +5393,8 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="19"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>

--- a/Plan/GameData/UnitDatabase_v03.xlsx
+++ b/Plan/GameData/UnitDatabase_v03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83092429-9BEC-4978-BE5C-985D16A127AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635556AE-1A33-4C33-883D-CB07B64889E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="510" windowWidth="23070" windowHeight="13800" activeTab="3" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
+    <workbookView xWindow="300" yWindow="720" windowWidth="24555" windowHeight="13800" activeTab="1" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="121">
   <si>
     <t>Move Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,24 +389,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>항상 갈라지는 등딱지 때문에 고민이 많던 투카 용병단은 어느 날 빈 대포를 찾게 됩니다. 들어가보니 딱 맞는 것이 아니겠어요? 아, 어떻게 들어갔는지는 물어보지 마세요. 공격을 무서워해서 숨는 습성이 있습니다. 대신 높은 체력과 방어력으로 팀을 적의 공격으로부터 막아줍니다</t>
-  </si>
-  <si>
-    <t>덕배 용병단은 곰처럼 몸이 커지고 싶었습니다. 운 좋게 얻은 곰 모양의 옷에 맞춰 열심히 운동한 결과 그들은 곰이 되었습니다! 아니, 정확하게 말하면 곰처럼 변했다고 해야할까요? 단단한 몸으로 한 번에 강력한 공격을 합니다</t>
-  </si>
-  <si>
     <t>람지 쌍검단은 쌍검을 쓰는 용맹한 전사들입니다! 작지만 재빠른 이동과 공격으로 적의 혼을 빼놓지요! 한 번에 두 번의 공격을 합니다</t>
   </si>
   <si>
-    <t>금호 창술단은 원래 오토바이를 타고 다니던 불량한 무리였습니다. 하지만 창을 배우고 난 뒤 건실하게 살아가고 있습니다. 긴 창을 이용하여 조금 더 멀리서 강한 공격을 합니다</t>
-  </si>
-  <si>
-    <t>아라 궁수단은 활을 쏘는 연습을 매일 하는 용병단입니다. 전쟁에 나가기 전에 자신의 단원의 머리 위의 모자에 화살을 맞추는 의식을 치루는 것으로 유명합니다. 잘못 맞으면 어떡하냐구요? 그럴 일은 없습니다~ 활을 이용하여 원거리에서 적을 공격합니다</t>
-  </si>
-  <si>
-    <t>바빗 음악단은 여유롭게 음악을 즐기는 토끼들이 뭉친 집단입니다. 사람들이 많은 곳에서 연주를 하는 것을 즐기던 토끼들이 이번 전투에서 자신들이 도움을 줄 수 있다는 것을 깨닫고 기꺼이 참여했습니다! 일정 범위 내의 아군에게 공속, 이속 증가 버프를 제공합니다. 적이 근접하면 약한 공격을 합니다</t>
-  </si>
-  <si>
     <t>사신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,911 +417,6 @@
   </si>
   <si>
     <t>피스는 왕국의 평화를 책임지는 믿음직한 비둘기입니다. 순백의 날개를 펼치면 아군들은 기쁨에 가득찹니다! 아군 유닛에게 일정 시간 무적 효과를 부여합니다</t>
-  </si>
-  <si>
-    <t>Because of the carapace that always loses water, the mercenary Tuca, who has a lot of manna, made them find an empty cannon one day. As you can see, it doesn't fit right? Oh, don't ask me how to get it. It has a habit of hiding because it is afraid of attack. Instead, block your team from enemy attacks with high health and defense.</t>
-  </si>
-  <si>
-    <t>The Deokbae Mercenary Corps wanted to grow as big as a bear. As a result of hard work in matching bear-shaped clothes they were lucky enough to get, they turned into bears! No, to be precise, should I say that he changed like a bear? A single powerful attack with a solid body</t>
-  </si>
-  <si>
-    <t>The Ramji Twin Blades are brave warriors wielding twin swords! Take out the enemy's soul with small but quick movements and attacks! Makes two attacks at once</t>
-  </si>
-  <si>
-    <t>The Kumho Spearmen were originally a rogue group that rode motorcycles. However, after learning the spear, I am living a healthy life. Use a long spear to make a strong attack from a little further away.</t>
-  </si>
-  <si>
-    <t>The Ara Archers Team is a mercenary group that practices archery every day. He is known for ceremoniously shooting arrows into the hats of his men before going to war. What if I get it wrong? There's no such thing ~ Use a bow to attack enemies from a distance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>카마</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마법사단은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다양한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마법을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연구하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>용병단입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이젠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그들의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>장기를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>활용하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>엄청난</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마법을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보여주려</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>합니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구체를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>발사하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>원거리에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격합니다</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Kama Wizards are a mercenary group that studies various magics. Now I'm going to use their organs and show them great magic! Fires an orb of electricity to attack from a distance.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>홀리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>성직자단은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>왕국의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>안녕과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>평화를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기원하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공동체입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전투에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참여하고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>싶지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>않았지만</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세계의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>균형을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전투에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참여하였습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>않고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>범위</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아군에게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>체력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방어력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>증가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>버프를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부여합니다</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Holy Clergy is a community that prays for the well-being and peace of the kingdom. I didn't want to participate in the battle, but I participated in the battle for the balance of the world. Grants buffs to increase health and defense to allies within a certain range without attacking.</t>
-  </si>
-  <si>
-    <t>The Babbit Music Troupe is a group of rabbits who enjoy music leisurely. The rabbits, who enjoyed playing in crowds of people, realized that they could help in this battle and gladly participated! Provides attack speed and movement speed increase buffs to allies within a certain range. When an enemy gets close, they do a weak attack.</t>
   </si>
   <si>
     <t>플레이어가 연속으로 문제를 틀릴 때 등장합니다.</t>
@@ -1427,7 +507,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1457,12 +537,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1472,20 +546,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1693,7 +753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1739,31 +799,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1796,22 +856,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2678,16 +1723,16 @@
       <c r="H32" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="24" t="s">
@@ -3494,16 +2539,16 @@
       <c r="H86" s="2"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="24" t="s">
@@ -3647,17 +2692,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A56:H56"/>
     <mergeCell ref="A89:H89"/>
     <mergeCell ref="A92:H92"/>
     <mergeCell ref="A97:H97"/>
@@ -3665,6 +2699,17 @@
     <mergeCell ref="A68:H68"/>
     <mergeCell ref="A74:H74"/>
     <mergeCell ref="A81:H81"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3676,14 +2721,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1C5E9E-FD4C-4CA6-B5C3-6FB5BFB8ED60}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="5" width="8.625" style="10"/>
-    <col min="6" max="6" width="8.625" style="20"/>
+    <col min="6" max="6" width="8.625" style="16"/>
     <col min="7" max="8" width="8.625" style="10"/>
   </cols>
   <sheetData>
@@ -3700,11 +2745,11 @@
       <c r="D1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>119</v>
+      <c r="E1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G1" s="7">
         <v>80</v>
@@ -3729,10 +2774,10 @@
       <c r="D2" s="4">
         <v>4</v>
       </c>
-      <c r="E2" s="36">
-        <v>1</v>
-      </c>
-      <c r="F2" s="36"/>
+      <c r="E2" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="F2" s="20"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
@@ -3749,10 +2794,10 @@
       <c r="D3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="36"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
@@ -3769,8 +2814,8 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
@@ -3787,11 +2832,11 @@
       <c r="D5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>121</v>
+      <c r="E5" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="G5" s="7">
         <v>90</v>
@@ -3816,10 +2861,10 @@
       <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E6" s="36">
-        <v>2</v>
-      </c>
-      <c r="F6" s="36"/>
+      <c r="E6" s="20">
+        <v>2</v>
+      </c>
+      <c r="F6" s="20"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
@@ -3836,10 +2881,10 @@
       <c r="D7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
@@ -3856,8 +2901,8 @@
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
@@ -3874,11 +2919,11 @@
       <c r="D9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>122</v>
+      <c r="E9" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>107</v>
       </c>
       <c r="G9" s="7">
         <v>50</v>
@@ -3903,10 +2948,10 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="36">
-        <v>2</v>
-      </c>
-      <c r="F10" s="36"/>
+      <c r="E10" s="20">
+        <v>2</v>
+      </c>
+      <c r="F10" s="20"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
@@ -3923,10 +2968,10 @@
       <c r="D11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
@@ -3943,8 +2988,8 @@
       <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
@@ -3961,11 +3006,11 @@
       <c r="D13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>124</v>
+      <c r="E13" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="G13" s="7">
         <v>75</v>
@@ -3990,10 +3035,10 @@
       <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="20">
         <v>3</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
@@ -4010,10 +3055,10 @@
       <c r="D15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
@@ -4030,8 +3075,8 @@
       <c r="D16" s="4">
         <v>1.5</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
@@ -4048,11 +3093,11 @@
       <c r="D17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>126</v>
+      <c r="E17" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="G17" s="7">
         <v>80</v>
@@ -4077,10 +3122,10 @@
       <c r="D18" s="4">
         <v>2</v>
       </c>
-      <c r="E18" s="36">
-        <v>3</v>
-      </c>
-      <c r="F18" s="36"/>
+      <c r="E18" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="20"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
@@ -4097,16 +3142,16 @@
       <c r="D19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="36"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B20" s="4">
         <v>10</v>
@@ -4117,8 +3162,8 @@
       <c r="D20" s="4">
         <v>1.3</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
@@ -4135,11 +3180,11 @@
       <c r="D21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>128</v>
+      <c r="E21" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="G21" s="7">
         <v>90</v>
@@ -4164,10 +3209,10 @@
       <c r="D22" s="4">
         <v>2</v>
       </c>
-      <c r="E22" s="36">
-        <v>3</v>
-      </c>
-      <c r="F22" s="36"/>
+      <c r="E22" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="F22" s="20"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
@@ -4184,16 +3229,16 @@
       <c r="D23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="36"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B24" s="4">
         <v>10</v>
@@ -4204,8 +3249,8 @@
       <c r="D24" s="4">
         <v>2</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
@@ -4222,11 +3267,11 @@
       <c r="D25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>130</v>
+      <c r="E25" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="G25" s="7">
         <v>120</v>
@@ -4251,10 +3296,10 @@
       <c r="D26" s="4">
         <v>3</v>
       </c>
-      <c r="E26" s="36">
-        <v>2</v>
-      </c>
-      <c r="F26" s="36"/>
+      <c r="E26" s="20">
+        <v>2</v>
+      </c>
+      <c r="F26" s="20"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
@@ -4271,10 +3316,10 @@
       <c r="D27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="36"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
@@ -4291,8 +3336,8 @@
       <c r="D28" s="4">
         <v>1</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
@@ -4309,8 +3354,8 @@
       <c r="D29" s="4">
         <v>0.1</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
@@ -4327,11 +3372,11 @@
       <c r="D30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>132</v>
+      <c r="E30" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="G30" s="7">
         <v>130</v>
@@ -4356,10 +3401,10 @@
       <c r="D31" s="4">
         <v>2</v>
       </c>
-      <c r="E31" s="36">
-        <v>2</v>
-      </c>
-      <c r="F31" s="36"/>
+      <c r="E31" s="20">
+        <v>2</v>
+      </c>
+      <c r="F31" s="20"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
@@ -4374,12 +3419,12 @@
         <v>1</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="36"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
@@ -4396,8 +3441,8 @@
       <c r="D33" s="13">
         <v>1</v>
       </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
@@ -4414,8 +3459,8 @@
       <c r="D34" s="2">
         <v>0.1</v>
       </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
@@ -4431,14 +3476,14 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="4" width="8.625" style="10"/>
     <col min="5" max="5" width="9" style="10"/>
-    <col min="6" max="6" width="9" style="20"/>
+    <col min="6" max="6" width="9" style="16"/>
     <col min="7" max="8" width="8.625" style="10"/>
   </cols>
   <sheetData>
@@ -4455,11 +3500,11 @@
       <c r="D1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>101</v>
+      <c r="E1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G1" s="7">
         <v>80</v>
@@ -4484,10 +3529,10 @@
       <c r="D2" s="4">
         <v>4</v>
       </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="F2" s="20"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
@@ -4504,10 +3549,10 @@
       <c r="D3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
@@ -4524,8 +3569,8 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="17"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
@@ -4542,11 +3587,11 @@
       <c r="D5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>102</v>
+      <c r="E5" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="G5" s="7">
         <v>90</v>
@@ -4571,10 +3616,10 @@
       <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="17"/>
+      <c r="E6" s="20">
+        <v>2</v>
+      </c>
+      <c r="F6" s="20"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
@@ -4591,10 +3636,10 @@
       <c r="D7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
@@ -4611,8 +3656,8 @@
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
@@ -4629,11 +3674,11 @@
       <c r="D9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>103</v>
+      <c r="E9" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>107</v>
       </c>
       <c r="G9" s="7">
         <v>50</v>
@@ -4658,10 +3703,10 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-      <c r="F10" s="17"/>
+      <c r="E10" s="20">
+        <v>2</v>
+      </c>
+      <c r="F10" s="20"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
@@ -4678,10 +3723,10 @@
       <c r="D11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
@@ -4698,8 +3743,8 @@
       <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
@@ -4716,11 +3761,11 @@
       <c r="D13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>104</v>
+      <c r="E13" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="G13" s="7">
         <v>75</v>
@@ -4745,10 +3790,10 @@
       <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="20">
         <v>3</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
@@ -4765,10 +3810,10 @@
       <c r="D15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
@@ -4785,8 +3830,8 @@
       <c r="D16" s="4">
         <v>1.5</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
@@ -4803,11 +3848,11 @@
       <c r="D17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>105</v>
+      <c r="E17" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="G17" s="7">
         <v>80</v>
@@ -4832,10 +3877,10 @@
       <c r="D18" s="4">
         <v>2</v>
       </c>
-      <c r="E18" s="4">
-        <v>3</v>
-      </c>
-      <c r="F18" s="17"/>
+      <c r="E18" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="20"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
@@ -4852,16 +3897,16 @@
       <c r="D19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B20" s="4">
         <v>10</v>
@@ -4872,8 +3917,8 @@
       <c r="D20" s="4">
         <v>1.3</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="17"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
@@ -4890,11 +3935,11 @@
       <c r="D21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>107</v>
+      <c r="E21" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="G21" s="7">
         <v>90</v>
@@ -4919,10 +3964,10 @@
       <c r="D22" s="4">
         <v>2</v>
       </c>
-      <c r="E22" s="4">
-        <v>3</v>
-      </c>
-      <c r="F22" s="17"/>
+      <c r="E22" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="F22" s="20"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
@@ -4939,16 +3984,16 @@
       <c r="D23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B24" s="4">
         <v>10</v>
@@ -4959,8 +4004,8 @@
       <c r="D24" s="4">
         <v>2</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="17"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
@@ -4977,11 +4022,11 @@
       <c r="D25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>109</v>
+      <c r="E25" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="G25" s="7">
         <v>120</v>
@@ -5006,10 +4051,10 @@
       <c r="D26" s="4">
         <v>3</v>
       </c>
-      <c r="E26" s="4">
-        <v>2</v>
-      </c>
-      <c r="F26" s="17"/>
+      <c r="E26" s="20">
+        <v>2</v>
+      </c>
+      <c r="F26" s="20"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
@@ -5026,10 +4071,10 @@
       <c r="D27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="17"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
@@ -5046,8 +4091,8 @@
       <c r="D28" s="4">
         <v>1</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="17"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
@@ -5064,8 +4109,8 @@
       <c r="D29" s="4">
         <v>0.1</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="17"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
@@ -5082,11 +4127,11 @@
       <c r="D30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>110</v>
+      <c r="E30" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="G30" s="7">
         <v>130</v>
@@ -5111,10 +4156,10 @@
       <c r="D31" s="4">
         <v>2</v>
       </c>
-      <c r="E31" s="4">
-        <v>2</v>
-      </c>
-      <c r="F31" s="17"/>
+      <c r="E31" s="20">
+        <v>2</v>
+      </c>
+      <c r="F31" s="20"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
@@ -5129,12 +4174,12 @@
         <v>1</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="17"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
@@ -5151,8 +4196,8 @@
       <c r="D33" s="13">
         <v>1</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="18"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
@@ -5169,8 +4214,8 @@
       <c r="D34" s="2">
         <v>0.1</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="19"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
@@ -5182,16 +4227,16 @@
         <v>0</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="G35" s="7">
         <v>4444</v>
@@ -5216,7 +4261,7 @@
       <c r="D36" s="4">
         <v>0</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="17">
         <v>2</v>
       </c>
       <c r="G36" s="4"/>
@@ -5265,14 +4310,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A6246A-9F7B-4896-8792-1C606A73A571}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="5" width="8.625" style="10"/>
-    <col min="6" max="6" width="8.625" style="20"/>
+    <col min="6" max="6" width="8.625" style="16"/>
     <col min="7" max="8" width="8.625" style="10"/>
   </cols>
   <sheetData>
@@ -5284,16 +4329,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>133</v>
+        <v>92</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="G1" s="7">
         <v>120</v>
@@ -5307,15 +4352,15 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
@@ -5332,8 +4377,8 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
@@ -5345,16 +4390,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>135</v>
+        <v>94</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="G4" s="7">
         <v>150</v>
@@ -5368,15 +4413,15 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
@@ -5393,8 +4438,8 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>

--- a/Plan/GameData/UnitDatabase_v03.xlsx
+++ b/Plan/GameData/UnitDatabase_v03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635556AE-1A33-4C33-883D-CB07B64889E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4E006D-C6DB-4D46-B973-95D4FD968022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="720" windowWidth="24555" windowHeight="13800" activeTab="1" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
+    <workbookView xWindow="1140" yWindow="1125" windowWidth="24555" windowHeight="13800" activeTab="2" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -826,6 +826,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -854,9 +857,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1194,17 +1194,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -1282,7 +1282,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1303,7 +1303,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="29"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1341,17 +1341,17 @@
       <c r="I7" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
@@ -1421,7 +1421,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="2">
         <v>0</v>
       </c>
@@ -1450,7 +1450,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -1465,7 +1465,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="32"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -1480,7 +1480,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="32"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -1495,7 +1495,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="33"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="2">
         <v>4</v>
       </c>
@@ -1507,16 +1507,16 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9">
@@ -1609,16 +1609,16 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
@@ -1723,28 +1723,28 @@
       <c r="H32" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7">
@@ -1831,16 +1831,16 @@
       <c r="H42" s="4"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7">
@@ -1927,16 +1927,16 @@
       <c r="H48" s="4"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7">
@@ -2023,16 +2023,16 @@
       <c r="H54" s="4"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="7">
@@ -2119,16 +2119,16 @@
       <c r="H60" s="4"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="7">
@@ -2215,16 +2215,16 @@
       <c r="H66" s="4"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7">
@@ -2311,16 +2311,16 @@
       <c r="H72" s="4"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7">
@@ -2425,16 +2425,16 @@
       <c r="H79" s="4"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
@@ -2539,28 +2539,28 @@
       <c r="H86" s="2"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="34" t="s">
+      <c r="A89" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="34"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="7">
@@ -2621,16 +2621,16 @@
       <c r="H95" s="2"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="24" t="s">
+      <c r="A97" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
@@ -2692,6 +2692,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A56:H56"/>
     <mergeCell ref="A89:H89"/>
     <mergeCell ref="A92:H92"/>
     <mergeCell ref="A97:H97"/>
@@ -2699,17 +2710,6 @@
     <mergeCell ref="A68:H68"/>
     <mergeCell ref="A74:H74"/>
     <mergeCell ref="A81:H81"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2721,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1C5E9E-FD4C-4CA6-B5C3-6FB5BFB8ED60}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H34"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2899,7 +2899,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D8" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B16" s="4">
         <v>10</v>
@@ -3475,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A38EC5C-4514-4B72-A7E2-347F92EED1EC}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3654,7 +3654,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D8" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -3819,7 +3819,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B16" s="4">
         <v>10</v>

--- a/Plan/GameData/UnitDatabase_v03.xlsx
+++ b/Plan/GameData/UnitDatabase_v03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4E006D-C6DB-4D46-B973-95D4FD968022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2D353D-85F8-4383-8D0B-B3360BB3F759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1125" windowWidth="24555" windowHeight="13800" activeTab="2" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
+    <workbookView xWindow="1140" yWindow="1125" windowWidth="24555" windowHeight="13800" activeTab="3" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -826,9 +826,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -857,6 +854,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -1194,17 +1194,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -1282,7 +1282,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1303,7 +1303,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="30"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="31"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1341,17 +1341,17 @@
       <c r="I7" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
@@ -1421,7 +1421,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="33"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="2">
         <v>0</v>
       </c>
@@ -1450,7 +1450,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="33"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -1465,7 +1465,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="33"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -1480,7 +1480,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="33"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -1495,7 +1495,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="34"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="2">
         <v>4</v>
       </c>
@@ -1507,16 +1507,16 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9">
@@ -1609,16 +1609,16 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
@@ -1723,28 +1723,28 @@
       <c r="H32" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7">
@@ -1831,16 +1831,16 @@
       <c r="H42" s="4"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7">
@@ -1927,16 +1927,16 @@
       <c r="H48" s="4"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7">
@@ -2023,16 +2023,16 @@
       <c r="H54" s="4"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="7">
@@ -2119,16 +2119,16 @@
       <c r="H60" s="4"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="7">
@@ -2215,16 +2215,16 @@
       <c r="H66" s="4"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7">
@@ -2311,16 +2311,16 @@
       <c r="H72" s="4"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7">
@@ -2425,16 +2425,16 @@
       <c r="H79" s="4"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
@@ -2539,28 +2539,28 @@
       <c r="H86" s="2"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="24" t="s">
+      <c r="A89" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="7">
@@ -2621,16 +2621,16 @@
       <c r="H95" s="2"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="26"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
@@ -2692,17 +2692,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A56:H56"/>
     <mergeCell ref="A89:H89"/>
     <mergeCell ref="A92:H92"/>
     <mergeCell ref="A97:H97"/>
@@ -2710,6 +2699,17 @@
     <mergeCell ref="A68:H68"/>
     <mergeCell ref="A74:H74"/>
     <mergeCell ref="A81:H81"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2721,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1C5E9E-FD4C-4CA6-B5C3-6FB5BFB8ED60}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3274,10 +3274,10 @@
         <v>115</v>
       </c>
       <c r="G25" s="7">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H25" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I25">
         <v>7</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="B26" s="4">
         <v>100</v>
@@ -3294,7 +3294,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" s="20">
         <v>2</v>
@@ -3343,10 +3343,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B29" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C29" s="4">
         <v>2</v>
@@ -3379,10 +3379,10 @@
         <v>117</v>
       </c>
       <c r="G30" s="7">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="H30" s="7">
-        <v>6.5</v>
+        <v>18</v>
       </c>
       <c r="I30">
         <v>8</v>
@@ -3390,13 +3390,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="B31" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C31" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" s="4">
         <v>2</v>
@@ -3448,10 +3448,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2">
         <v>0.3</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0.1</v>
       </c>
       <c r="C34" s="2">
         <v>2</v>
@@ -3475,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A38EC5C-4514-4B72-A7E2-347F92EED1EC}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4029,10 +4029,10 @@
         <v>115</v>
       </c>
       <c r="G25" s="7">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H25" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I25">
         <v>7</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="B26" s="4">
         <v>100</v>
@@ -4049,7 +4049,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" s="20">
         <v>2</v>
@@ -4098,10 +4098,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B29" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C29" s="4">
         <v>2</v>
@@ -4134,10 +4134,10 @@
         <v>117</v>
       </c>
       <c r="G30" s="7">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="H30" s="7">
-        <v>6.5</v>
+        <v>18</v>
       </c>
       <c r="I30">
         <v>8</v>
@@ -4145,13 +4145,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="B31" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C31" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" s="4">
         <v>2</v>
@@ -4203,10 +4203,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2">
         <v>0.3</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0.1</v>
       </c>
       <c r="C34" s="2">
         <v>2</v>
@@ -4310,8 +4310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A6246A-9F7B-4896-8792-1C606A73A571}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4341,7 +4341,7 @@
         <v>118</v>
       </c>
       <c r="G1" s="7">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="H1" s="7">
         <v>30</v>
@@ -4366,10 +4366,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>120</v>
       </c>
       <c r="G4" s="7">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H4" s="7">
         <v>40</v>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>0.5</v>

--- a/Plan/GameData/UnitDatabase_v03.xlsx
+++ b/Plan/GameData/UnitDatabase_v03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2D353D-85F8-4383-8D0B-B3360BB3F759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DB8B27-AE33-49FA-9A48-7CEAA9E69BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1125" windowWidth="24555" windowHeight="13800" activeTab="3" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
+    <workbookView xWindow="5865" yWindow="585" windowWidth="14400" windowHeight="13905" activeTab="2" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -826,6 +826,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -854,9 +857,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1194,17 +1194,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -1282,7 +1282,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1303,7 +1303,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="29"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1341,17 +1341,17 @@
       <c r="I7" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
@@ -1421,7 +1421,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="2">
         <v>0</v>
       </c>
@@ -1450,7 +1450,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -1465,7 +1465,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="32"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -1480,7 +1480,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="32"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -1495,7 +1495,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="33"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="2">
         <v>4</v>
       </c>
@@ -1507,16 +1507,16 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9">
@@ -1609,16 +1609,16 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
@@ -1723,28 +1723,28 @@
       <c r="H32" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7">
@@ -1831,16 +1831,16 @@
       <c r="H42" s="4"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7">
@@ -1927,16 +1927,16 @@
       <c r="H48" s="4"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7">
@@ -2023,16 +2023,16 @@
       <c r="H54" s="4"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="7">
@@ -2119,16 +2119,16 @@
       <c r="H60" s="4"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="7">
@@ -2215,16 +2215,16 @@
       <c r="H66" s="4"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7">
@@ -2311,16 +2311,16 @@
       <c r="H72" s="4"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7">
@@ -2425,16 +2425,16 @@
       <c r="H79" s="4"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
@@ -2539,28 +2539,28 @@
       <c r="H86" s="2"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="34" t="s">
+      <c r="A89" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="34"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="7">
@@ -2621,16 +2621,16 @@
       <c r="H95" s="2"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="24" t="s">
+      <c r="A97" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
@@ -2692,6 +2692,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A56:H56"/>
     <mergeCell ref="A89:H89"/>
     <mergeCell ref="A92:H92"/>
     <mergeCell ref="A97:H97"/>
@@ -2699,17 +2710,6 @@
     <mergeCell ref="A68:H68"/>
     <mergeCell ref="A74:H74"/>
     <mergeCell ref="A81:H81"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2721,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1C5E9E-FD4C-4CA6-B5C3-6FB5BFB8ED60}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3070,7 +3070,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D16" s="4">
         <v>1.5</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B24" s="4">
         <v>10</v>
@@ -3475,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A38EC5C-4514-4B72-A7E2-347F92EED1EC}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3825,7 +3825,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D16" s="4">
         <v>1.5</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B24" s="4">
         <v>10</v>
@@ -4310,7 +4310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A6246A-9F7B-4896-8792-1C606A73A571}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Plan/GameData/UnitDatabase_v03.xlsx
+++ b/Plan/GameData/UnitDatabase_v03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DB8B27-AE33-49FA-9A48-7CEAA9E69BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD36548-D7F7-43B8-BE2B-3F04393BBC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="585" windowWidth="14400" windowHeight="13905" activeTab="2" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
+    <workbookView xWindow="2700" yWindow="240" windowWidth="14400" windowHeight="13905" activeTab="1" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -826,9 +826,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -857,6 +854,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1194,17 +1194,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -1282,7 +1282,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1303,7 +1303,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="30"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="31"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1341,17 +1341,17 @@
       <c r="I7" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
@@ -1421,7 +1421,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="33"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="2">
         <v>0</v>
       </c>
@@ -1450,7 +1450,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="33"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -1465,7 +1465,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="33"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -1480,7 +1480,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="33"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -1495,7 +1495,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="34"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="2">
         <v>4</v>
       </c>
@@ -1507,16 +1507,16 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9">
@@ -1609,16 +1609,16 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
@@ -1723,28 +1723,28 @@
       <c r="H32" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7">
@@ -1831,16 +1831,16 @@
       <c r="H42" s="4"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7">
@@ -1927,16 +1927,16 @@
       <c r="H48" s="4"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7">
@@ -2023,16 +2023,16 @@
       <c r="H54" s="4"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="7">
@@ -2119,16 +2119,16 @@
       <c r="H60" s="4"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="7">
@@ -2215,16 +2215,16 @@
       <c r="H66" s="4"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7">
@@ -2311,16 +2311,16 @@
       <c r="H72" s="4"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7">
@@ -2425,16 +2425,16 @@
       <c r="H79" s="4"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
@@ -2539,28 +2539,28 @@
       <c r="H86" s="2"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="24" t="s">
+      <c r="A89" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="7">
@@ -2621,16 +2621,16 @@
       <c r="H95" s="2"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="26"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
@@ -2692,17 +2692,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A56:H56"/>
     <mergeCell ref="A89:H89"/>
     <mergeCell ref="A92:H92"/>
     <mergeCell ref="A97:H97"/>
@@ -2710,6 +2699,17 @@
     <mergeCell ref="A68:H68"/>
     <mergeCell ref="A74:H74"/>
     <mergeCell ref="A81:H81"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2721,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1C5E9E-FD4C-4CA6-B5C3-6FB5BFB8ED60}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3070,7 +3070,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="4">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D16" s="4">
         <v>1.5</v>
@@ -3475,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A38EC5C-4514-4B72-A7E2-347F92EED1EC}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3825,7 +3825,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="4">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D16" s="4">
         <v>1.5</v>
@@ -4285,13 +4285,13 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4">
-        <v>44</v>
+        <v>444</v>
       </c>
       <c r="B38" s="4">
         <v>0</v>
       </c>
       <c r="C38" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>

--- a/Plan/GameData/UnitDatabase_v03.xlsx
+++ b/Plan/GameData/UnitDatabase_v03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD36548-D7F7-43B8-BE2B-3F04393BBC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF87A49-A881-4A65-886D-6BC2BCC8EA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="240" windowWidth="14400" windowHeight="13905" activeTab="1" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
+    <workbookView xWindow="6210" yWindow="825" windowWidth="14400" windowHeight="13905" activeTab="2" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -1175,7 +1175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECDDCD4-1D27-4FE4-92BB-9026CE350CFB}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2721,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1C5E9E-FD4C-4CA6-B5C3-6FB5BFB8ED60}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3436,10 +3436,10 @@
         <v>10</v>
       </c>
       <c r="C33" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D33" s="13">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -3475,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A38EC5C-4514-4B72-A7E2-347F92EED1EC}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4191,10 +4191,10 @@
         <v>10</v>
       </c>
       <c r="C33" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D33" s="13">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -4291,10 +4291,10 @@
         <v>0</v>
       </c>
       <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
         <v>6</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>

--- a/Plan/GameData/UnitDatabase_v03.xlsx
+++ b/Plan/GameData/UnitDatabase_v03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF87A49-A881-4A65-886D-6BC2BCC8EA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CE566E-076C-446E-ADFF-1D218E606DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="825" windowWidth="14400" windowHeight="13905" activeTab="2" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
+    <workbookView xWindow="5865" yWindow="480" windowWidth="14400" windowHeight="13905" activeTab="2" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -2721,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1C5E9E-FD4C-4CA6-B5C3-6FB5BFB8ED60}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3064,10 +3064,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B16" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4">
         <v>2.2000000000000002</v>
@@ -3475,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A38EC5C-4514-4B72-A7E2-347F92EED1EC}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3819,10 +3819,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B16" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4">
         <v>2.2000000000000002</v>

--- a/Plan/GameData/UnitDatabase_v03.xlsx
+++ b/Plan/GameData/UnitDatabase_v03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CE566E-076C-446E-ADFF-1D218E606DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820C48CD-6FF9-4BEE-B871-FACAE07A056C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="480" windowWidth="14400" windowHeight="13905" activeTab="2" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
+    <workbookView xWindow="12490" yWindow="1630" windowWidth="23460" windowHeight="17890" activeTab="2" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -826,6 +826,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -854,9 +857,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1179,32 +1179,32 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.625" style="1"/>
+    <col min="9" max="9" width="21.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -1282,7 +1282,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1303,7 +1303,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="29"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1341,17 +1341,17 @@
       <c r="I7" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
@@ -1421,7 +1421,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="2">
         <v>0</v>
       </c>
@@ -1450,7 +1450,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -1465,7 +1465,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="32"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -1480,7 +1480,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="32"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -1495,7 +1495,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="33"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="2">
         <v>4</v>
       </c>
@@ -1507,16 +1507,16 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9">
@@ -1609,16 +1609,16 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
@@ -1723,28 +1723,28 @@
       <c r="H32" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7">
@@ -1831,16 +1831,16 @@
       <c r="H42" s="4"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7">
@@ -1927,16 +1927,16 @@
       <c r="H48" s="4"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7">
@@ -2023,16 +2023,16 @@
       <c r="H54" s="4"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="7">
@@ -2119,16 +2119,16 @@
       <c r="H60" s="4"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="7">
@@ -2215,16 +2215,16 @@
       <c r="H66" s="4"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7">
@@ -2311,16 +2311,16 @@
       <c r="H72" s="4"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7">
@@ -2425,16 +2425,16 @@
       <c r="H79" s="4"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
@@ -2539,28 +2539,28 @@
       <c r="H86" s="2"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="34" t="s">
+      <c r="A89" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="34"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="7">
@@ -2621,16 +2621,16 @@
       <c r="H95" s="2"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="24" t="s">
+      <c r="A97" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
@@ -2692,6 +2692,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A56:H56"/>
     <mergeCell ref="A89:H89"/>
     <mergeCell ref="A92:H92"/>
     <mergeCell ref="A97:H97"/>
@@ -2699,17 +2710,6 @@
     <mergeCell ref="A68:H68"/>
     <mergeCell ref="A74:H74"/>
     <mergeCell ref="A81:H81"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2722,14 +2722,14 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H34" sqref="A1:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="5" width="8.625" style="10"/>
-    <col min="6" max="6" width="8.625" style="16"/>
-    <col min="7" max="8" width="8.625" style="10"/>
+    <col min="1" max="5" width="8.58203125" style="10"/>
+    <col min="6" max="6" width="8.58203125" style="16"/>
+    <col min="7" max="8" width="8.58203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3303,7 +3303,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="33">
+    <row r="27" spans="1:9" ht="34">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -3448,10 +3448,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B34" s="2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C34" s="2">
         <v>2</v>
@@ -3475,16 +3475,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A38EC5C-4514-4B72-A7E2-347F92EED1EC}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="4" width="8.625" style="10"/>
+    <col min="1" max="4" width="8.58203125" style="10"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="9" style="16"/>
-    <col min="7" max="8" width="8.625" style="10"/>
+    <col min="7" max="8" width="8.58203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4058,7 +4058,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="33">
+    <row r="27" spans="1:9" ht="34">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -4203,10 +4203,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B34" s="2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C34" s="2">
         <v>2</v>
@@ -4314,11 +4314,11 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="5" width="8.625" style="10"/>
-    <col min="6" max="6" width="8.625" style="16"/>
-    <col min="7" max="8" width="8.625" style="10"/>
+    <col min="1" max="5" width="8.58203125" style="10"/>
+    <col min="6" max="6" width="8.58203125" style="16"/>
+    <col min="7" max="8" width="8.58203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">

--- a/Plan/GameData/UnitDatabase_v03.xlsx
+++ b/Plan/GameData/UnitDatabase_v03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820C48CD-6FF9-4BEE-B871-FACAE07A056C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF83C3C-2D34-42B8-9241-D9DBB2769863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12490" yWindow="1630" windowWidth="23460" windowHeight="17890" activeTab="2" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{0AD19C01-F545-4496-A2AF-5430239E61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="128">
   <si>
     <t>Move Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,10 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>특탱근원지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>금호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,6 +497,38 @@
   </si>
   <si>
     <t>Taser emerges like the wind on dangerous terrain, threatening enemies and safeguarding allies. It inflicts a stun effect on enemy units for a specific duration.</t>
+  </si>
+  <si>
+    <t>탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangedDealer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -826,9 +854,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -859,6 +884,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -877,9 +905,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -917,7 +945,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1023,7 +1051,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1165,7 +1193,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1175,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECDDCD4-1D27-4FE4-92BB-9026CE350CFB}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -1194,17 +1222,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -1282,7 +1310,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1303,7 +1331,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="30"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1322,7 +1350,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="31"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1341,17 +1369,17 @@
       <c r="I7" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
@@ -1421,11 +1449,11 @@
       <c r="I12" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>5</v>
@@ -1435,12 +1463,12 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="33"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="2">
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>25</v>
@@ -1450,73 +1478,73 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="33"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="33"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="2">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="33"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="2">
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="34"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="2">
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9">
@@ -1603,22 +1631,17 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="I26" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
@@ -1723,28 +1746,28 @@
       <c r="H32" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
+      <c r="A35" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7">
@@ -1831,16 +1854,16 @@
       <c r="H42" s="4"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7">
@@ -1927,16 +1950,16 @@
       <c r="H48" s="4"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7">
@@ -2023,16 +2046,16 @@
       <c r="H54" s="4"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="7">
@@ -2042,13 +2065,13 @@
         <v>2</v>
       </c>
       <c r="C57" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="E57" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>56</v>
@@ -2119,16 +2142,16 @@
       <c r="H60" s="4"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="7">
@@ -2138,13 +2161,13 @@
         <v>3</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="E63" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>57</v>
@@ -2215,16 +2238,16 @@
       <c r="H66" s="4"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7">
@@ -2234,13 +2257,13 @@
         <v>3</v>
       </c>
       <c r="C69" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="E69" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>58</v>
@@ -2311,16 +2334,16 @@
       <c r="H72" s="4"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
+      <c r="A74" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7">
@@ -2330,16 +2353,16 @@
         <v>4</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="E75" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="F75" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="G75" s="7">
         <v>60</v>
@@ -2379,10 +2402,10 @@
         <v>1</v>
       </c>
       <c r="D77" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E77" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -2425,16 +2448,16 @@
       <c r="H79" s="4"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
@@ -2539,28 +2562,28 @@
       <c r="H86" s="2"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="24" t="s">
+      <c r="A89" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="7">
@@ -2570,16 +2593,16 @@
         <v>0</v>
       </c>
       <c r="C93" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E93" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="F93" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G93" s="7">
         <v>120</v>
@@ -2590,10 +2613,10 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B94" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -2610,10 +2633,10 @@
         <v>0.5</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -2621,16 +2644,16 @@
       <c r="H95" s="2"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="26"/>
+      <c r="A97" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
@@ -2640,16 +2663,16 @@
         <v>0</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G98" s="7">
         <v>150</v>
@@ -2660,10 +2683,10 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B99" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -2680,10 +2703,10 @@
         <v>0.5</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -2692,17 +2715,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A56:H56"/>
     <mergeCell ref="A89:H89"/>
     <mergeCell ref="A92:H92"/>
     <mergeCell ref="A97:H97"/>
@@ -2710,6 +2722,17 @@
     <mergeCell ref="A68:H68"/>
     <mergeCell ref="A74:H74"/>
     <mergeCell ref="A81:H81"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2746,10 +2769,10 @@
         <v>30</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="G1" s="7">
         <v>80</v>
@@ -2833,10 +2856,10 @@
         <v>48</v>
       </c>
       <c r="E5" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>106</v>
       </c>
       <c r="G5" s="7">
         <v>90</v>
@@ -2920,10 +2943,10 @@
         <v>52</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" s="7">
         <v>50</v>
@@ -3001,16 +3024,16 @@
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="E13" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>109</v>
       </c>
       <c r="G13" s="7">
         <v>75</v>
@@ -3088,16 +3111,16 @@
         <v>3</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="E17" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>111</v>
       </c>
       <c r="G17" s="7">
         <v>80</v>
@@ -3175,16 +3198,16 @@
         <v>3</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="E21" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="G21" s="7">
         <v>90</v>
@@ -3262,16 +3285,16 @@
         <v>4</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="E25" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>115</v>
       </c>
       <c r="G25" s="7">
         <v>200</v>
@@ -3314,10 +3337,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>74</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="4"/>
@@ -3373,10 +3396,10 @@
         <v>37</v>
       </c>
       <c r="E30" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>117</v>
       </c>
       <c r="G30" s="7">
         <v>230</v>
@@ -3419,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>41</v>
@@ -3475,7 +3498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A38EC5C-4514-4B72-A7E2-347F92EED1EC}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -3501,10 +3524,10 @@
         <v>30</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="G1" s="7">
         <v>80</v>
@@ -3588,10 +3611,10 @@
         <v>48</v>
       </c>
       <c r="E5" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>106</v>
       </c>
       <c r="G5" s="7">
         <v>90</v>
@@ -3675,10 +3698,10 @@
         <v>52</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" s="7">
         <v>50</v>
@@ -3756,16 +3779,16 @@
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="E13" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>109</v>
       </c>
       <c r="G13" s="7">
         <v>75</v>
@@ -3843,16 +3866,16 @@
         <v>3</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="E17" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>111</v>
       </c>
       <c r="G17" s="7">
         <v>80</v>
@@ -3930,16 +3953,16 @@
         <v>3</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="E21" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="G21" s="7">
         <v>90</v>
@@ -4017,16 +4040,16 @@
         <v>4</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="E25" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>115</v>
       </c>
       <c r="G25" s="7">
         <v>200</v>
@@ -4069,10 +4092,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>74</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="4"/>
@@ -4128,10 +4151,10 @@
         <v>37</v>
       </c>
       <c r="E30" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>117</v>
       </c>
       <c r="G30" s="7">
         <v>230</v>
@@ -4174,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>41</v>
@@ -4227,16 +4250,16 @@
         <v>0</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="E35" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>97</v>
       </c>
       <c r="G35" s="7">
         <v>4444</v>
@@ -4329,16 +4352,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="E1" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G1" s="7">
         <v>250</v>
@@ -4352,10 +4375,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -4390,16 +4413,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="E4" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="G4" s="7">
         <v>300</v>
@@ -4413,10 +4436,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
